--- a/Departments/CA.xlsx
+++ b/Departments/CA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94DD187E-3085-4C50-926D-5EF52B906F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EC942E-19EE-419B-8A29-EE18D33DADFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B187D5D7-0D68-4E5E-975E-9B1E3E0FF1A6}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{B187D5D7-0D68-4E5E-975E-9B1E3E0FF1A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -1747,6 +1741,12 @@
   </si>
   <si>
     <t>CA 898 - Master of Fine Arts Graduating Project</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -2101,7 +2101,7 @@
   <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I195"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2120,5444 +2120,5444 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
         <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
         <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
         <v>63</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
         <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
         <v>72</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
         <v>73</v>
-      </c>
-      <c r="E23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>80</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
         <v>81</v>
-      </c>
-      <c r="F25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
         <v>85</v>
-      </c>
-      <c r="E26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
         <v>88</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
         <v>89</v>
-      </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
         <v>92</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
         <v>95</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
         <v>96</v>
-      </c>
-      <c r="E29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
         <v>99</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
         <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" t="s">
         <v>103</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
         <v>104</v>
-      </c>
-      <c r="E31" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" t="s">
         <v>107</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" t="s">
-        <v>109</v>
-      </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
         <v>112</v>
       </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
         <v>113</v>
-      </c>
-      <c r="E34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" t="s">
         <v>120</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
         <v>121</v>
-      </c>
-      <c r="E37" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
         <v>124</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
         <v>127</v>
       </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
         <v>128</v>
-      </c>
-      <c r="E39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
         <v>131</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
         <v>134</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
         <v>137</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s">
         <v>142</v>
       </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
         <v>143</v>
-      </c>
-      <c r="E44" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" t="s">
         <v>148</v>
       </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
         <v>149</v>
-      </c>
-      <c r="E46" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
         <v>152</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" t="s">
         <v>157</v>
       </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
         <v>158</v>
-      </c>
-      <c r="E49" t="s">
-        <v>159</v>
-      </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" t="s">
         <v>161</v>
       </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>162</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
         <v>163</v>
-      </c>
-      <c r="F50" t="s">
-        <v>164</v>
-      </c>
-      <c r="G50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
         <v>166</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" t="s">
         <v>169</v>
       </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
         <v>170</v>
-      </c>
-      <c r="E52" t="s">
-        <v>171</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" t="s">
         <v>173</v>
       </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" t="s">
-        <v>175</v>
-      </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
         <v>176</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s">
-        <v>177</v>
-      </c>
-      <c r="E54" t="s">
-        <v>95</v>
-      </c>
-      <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" t="s">
         <v>179</v>
       </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
         <v>180</v>
-      </c>
-      <c r="E55" t="s">
-        <v>181</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" t="s">
         <v>183</v>
       </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
         <v>184</v>
-      </c>
-      <c r="E56" t="s">
-        <v>185</v>
-      </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
         <v>187</v>
-      </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" t="s">
-        <v>95</v>
-      </c>
-      <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
         <v>190</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s">
-        <v>191</v>
-      </c>
-      <c r="E58" t="s">
-        <v>103</v>
-      </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" t="s">
         <v>193</v>
       </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
         <v>194</v>
-      </c>
-      <c r="E59" t="s">
-        <v>195</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
         <v>197</v>
-      </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s">
-        <v>198</v>
-      </c>
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" t="s">
         <v>200</v>
       </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>201</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
         <v>202</v>
-      </c>
-      <c r="F61" t="s">
-        <v>203</v>
-      </c>
-      <c r="G61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E64" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" t="s">
         <v>211</v>
       </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
         <v>212</v>
-      </c>
-      <c r="E65" t="s">
-        <v>203</v>
-      </c>
-      <c r="F65" t="s">
-        <v>213</v>
-      </c>
-      <c r="G65" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" t="s">
         <v>215</v>
       </c>
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
         <v>216</v>
-      </c>
-      <c r="E66" t="s">
-        <v>217</v>
-      </c>
-      <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>219</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" t="s">
         <v>221</v>
       </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
         <v>222</v>
-      </c>
-      <c r="E68" t="s">
-        <v>223</v>
-      </c>
-      <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" t="s">
         <v>225</v>
       </c>
-      <c r="B69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
         <v>226</v>
-      </c>
-      <c r="E69" t="s">
-        <v>227</v>
-      </c>
-      <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>228</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
         <v>229</v>
-      </c>
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>230</v>
-      </c>
-      <c r="E70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>231</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
         <v>232</v>
-      </c>
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s">
-        <v>233</v>
-      </c>
-      <c r="E71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>234</v>
+      </c>
+      <c r="E72" t="s">
+        <v>169</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
         <v>235</v>
-      </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s">
-        <v>236</v>
-      </c>
-      <c r="E72" t="s">
-        <v>171</v>
-      </c>
-      <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>237</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
         <v>238</v>
-      </c>
-      <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s">
-        <v>239</v>
-      </c>
-      <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>240</v>
+      </c>
+      <c r="E74" t="s">
+        <v>127</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
         <v>241</v>
-      </c>
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s">
-        <v>242</v>
-      </c>
-      <c r="E74" t="s">
-        <v>129</v>
-      </c>
-      <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" t="s">
         <v>244</v>
       </c>
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
         <v>245</v>
-      </c>
-      <c r="E75" t="s">
-        <v>246</v>
-      </c>
-      <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
+        <v>246</v>
+      </c>
+      <c r="E76" t="s">
+        <v>247</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
         <v>248</v>
-      </c>
-      <c r="E76" t="s">
-        <v>249</v>
-      </c>
-      <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>249</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" t="s">
         <v>251</v>
       </c>
-      <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" t="s">
         <v>252</v>
-      </c>
-      <c r="E77" t="s">
-        <v>253</v>
-      </c>
-      <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>253</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>254</v>
+      </c>
+      <c r="E78" t="s">
         <v>255</v>
       </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
         <v>256</v>
-      </c>
-      <c r="E78" t="s">
-        <v>257</v>
-      </c>
-      <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" t="s">
-        <v>15</v>
-      </c>
-      <c r="I78" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>257</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>258</v>
+      </c>
+      <c r="E79" t="s">
         <v>259</v>
       </c>
-      <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
         <v>260</v>
-      </c>
-      <c r="E79" t="s">
-        <v>261</v>
-      </c>
-      <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" t="s">
-        <v>15</v>
-      </c>
-      <c r="I79" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>261</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>262</v>
+      </c>
+      <c r="E80" t="s">
         <v>263</v>
       </c>
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
         <v>264</v>
-      </c>
-      <c r="E80" t="s">
-        <v>265</v>
-      </c>
-      <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>265</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81" t="s">
+        <v>97</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
         <v>267</v>
-      </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s">
-        <v>268</v>
-      </c>
-      <c r="E81" t="s">
-        <v>99</v>
-      </c>
-      <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" t="s">
-        <v>15</v>
-      </c>
-      <c r="I81" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>268</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>269</v>
+      </c>
+      <c r="E82" t="s">
         <v>270</v>
       </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s">
-        <v>271</v>
-      </c>
-      <c r="E82" t="s">
-        <v>272</v>
-      </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E83" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>274</v>
+      </c>
+      <c r="E84" t="s">
         <v>275</v>
       </c>
-      <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
         <v>276</v>
-      </c>
-      <c r="E84" t="s">
-        <v>277</v>
-      </c>
-      <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" t="s">
-        <v>15</v>
-      </c>
-      <c r="I84" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>278</v>
+      </c>
+      <c r="E85" t="s">
         <v>279</v>
       </c>
-      <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
         <v>280</v>
-      </c>
-      <c r="E85" t="s">
-        <v>281</v>
-      </c>
-      <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" t="s">
-        <v>15</v>
-      </c>
-      <c r="I85" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>281</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>282</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
         <v>283</v>
-      </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s">
-        <v>284</v>
-      </c>
-      <c r="E86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" t="s">
-        <v>15</v>
-      </c>
-      <c r="I86" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>285</v>
+      </c>
+      <c r="E87" t="s">
         <v>286</v>
       </c>
-      <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
         <v>287</v>
-      </c>
-      <c r="E87" t="s">
-        <v>288</v>
-      </c>
-      <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" t="s">
-        <v>15</v>
-      </c>
-      <c r="I87" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>288</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>289</v>
+      </c>
+      <c r="E88" t="s">
+        <v>286</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" t="s">
         <v>290</v>
-      </c>
-      <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s">
-        <v>291</v>
-      </c>
-      <c r="E88" t="s">
-        <v>288</v>
-      </c>
-      <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>291</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>292</v>
+      </c>
+      <c r="E89" t="s">
         <v>293</v>
       </c>
-      <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s">
         <v>294</v>
-      </c>
-      <c r="E89" t="s">
-        <v>295</v>
-      </c>
-      <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>311</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>312</v>
+      </c>
+      <c r="E98" t="s">
+        <v>309</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
         <v>313</v>
-      </c>
-      <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s">
-        <v>314</v>
-      </c>
-      <c r="E98" t="s">
-        <v>311</v>
-      </c>
-      <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" t="s">
-        <v>15</v>
-      </c>
-      <c r="I98" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>316</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>317</v>
+      </c>
+      <c r="E100" t="s">
+        <v>314</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
         <v>318</v>
-      </c>
-      <c r="B100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s">
-        <v>319</v>
-      </c>
-      <c r="E100" t="s">
-        <v>316</v>
-      </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" t="s">
-        <v>15</v>
-      </c>
-      <c r="I100" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>319</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>320</v>
+      </c>
+      <c r="E101" t="s">
+        <v>316</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
         <v>321</v>
-      </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s">
-        <v>322</v>
-      </c>
-      <c r="E101" t="s">
-        <v>318</v>
-      </c>
-      <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" t="s">
-        <v>15</v>
-      </c>
-      <c r="I101" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E102" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I102" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>324</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>325</v>
+      </c>
+      <c r="E103" t="s">
         <v>326</v>
       </c>
-      <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" t="s">
         <v>327</v>
-      </c>
-      <c r="E103" t="s">
-        <v>328</v>
-      </c>
-      <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" t="s">
-        <v>15</v>
-      </c>
-      <c r="I103" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
+        <v>328</v>
+      </c>
+      <c r="E104" t="s">
+        <v>329</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
         <v>330</v>
-      </c>
-      <c r="E104" t="s">
-        <v>331</v>
-      </c>
-      <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>331</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>332</v>
+      </c>
+      <c r="E105" t="s">
+        <v>33</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" t="s">
         <v>333</v>
-      </c>
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s">
-        <v>334</v>
-      </c>
-      <c r="E105" t="s">
-        <v>35</v>
-      </c>
-      <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" t="s">
-        <v>15</v>
-      </c>
-      <c r="I105" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>336</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>337</v>
+      </c>
+      <c r="E107" t="s">
+        <v>93</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
         <v>338</v>
-      </c>
-      <c r="B107" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s">
-        <v>339</v>
-      </c>
-      <c r="E107" t="s">
-        <v>95</v>
-      </c>
-      <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" t="s">
-        <v>15</v>
-      </c>
-      <c r="I107" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>339</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>340</v>
+      </c>
+      <c r="E108" t="s">
+        <v>39</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" t="s">
         <v>341</v>
-      </c>
-      <c r="B108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s">
-        <v>342</v>
-      </c>
-      <c r="E108" t="s">
-        <v>41</v>
-      </c>
-      <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s">
-        <v>14</v>
-      </c>
-      <c r="H108" t="s">
-        <v>15</v>
-      </c>
-      <c r="I108" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>342</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>343</v>
+      </c>
+      <c r="E109" t="s">
+        <v>107</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s">
         <v>344</v>
-      </c>
-      <c r="B109" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s">
-        <v>345</v>
-      </c>
-      <c r="E109" t="s">
-        <v>109</v>
-      </c>
-      <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>345</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>346</v>
+      </c>
+      <c r="E110" t="s">
+        <v>107</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
         <v>347</v>
-      </c>
-      <c r="B110" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s">
-        <v>348</v>
-      </c>
-      <c r="E110" t="s">
-        <v>109</v>
-      </c>
-      <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110" t="s">
-        <v>15</v>
-      </c>
-      <c r="I110" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E111" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I111" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E112" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
+        <v>354</v>
+      </c>
+      <c r="D114" t="s">
+        <v>355</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" t="s">
         <v>356</v>
       </c>
-      <c r="D114" t="s">
+      <c r="H114" t="s">
         <v>357</v>
-      </c>
-      <c r="E114" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s">
-        <v>358</v>
-      </c>
-      <c r="H114" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
+        <v>354</v>
+      </c>
+      <c r="D115" t="s">
+        <v>355</v>
+      </c>
+      <c r="E115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" t="s">
         <v>356</v>
       </c>
-      <c r="D115" t="s">
+      <c r="H115" t="s">
         <v>357</v>
       </c>
-      <c r="E115" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="I115" t="s">
         <v>358</v>
-      </c>
-      <c r="H115" t="s">
-        <v>359</v>
-      </c>
-      <c r="I115" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H116" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I118" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I124" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>375</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>376</v>
+      </c>
+      <c r="E125" t="s">
+        <v>49</v>
+      </c>
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" t="s">
         <v>377</v>
-      </c>
-      <c r="B125" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s">
-        <v>378</v>
-      </c>
-      <c r="E125" t="s">
-        <v>51</v>
-      </c>
-      <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" t="s">
-        <v>15</v>
-      </c>
-      <c r="I125" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H127" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
+        <v>382</v>
+      </c>
+      <c r="E128" t="s">
+        <v>383</v>
+      </c>
+      <c r="F128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" t="s">
         <v>384</v>
-      </c>
-      <c r="E128" t="s">
-        <v>385</v>
-      </c>
-      <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" t="s">
-        <v>15</v>
-      </c>
-      <c r="I128" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>385</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>386</v>
+      </c>
+      <c r="E129" t="s">
+        <v>72</v>
+      </c>
+      <c r="F129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" t="s">
         <v>387</v>
-      </c>
-      <c r="B129" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s">
-        <v>388</v>
-      </c>
-      <c r="E129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" t="s">
-        <v>15</v>
-      </c>
-      <c r="I129" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
+        <v>388</v>
+      </c>
+      <c r="E130" t="s">
+        <v>389</v>
+      </c>
+      <c r="F130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" t="s">
         <v>390</v>
-      </c>
-      <c r="E130" t="s">
-        <v>391</v>
-      </c>
-      <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" t="s">
-        <v>15</v>
-      </c>
-      <c r="I130" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>391</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>392</v>
+      </c>
+      <c r="E131" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
         <v>393</v>
-      </c>
-      <c r="B131" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s">
-        <v>394</v>
-      </c>
-      <c r="E131" t="s">
-        <v>25</v>
-      </c>
-      <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" t="s">
-        <v>15</v>
-      </c>
-      <c r="I131" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
+        <v>394</v>
+      </c>
+      <c r="D132" t="s">
+        <v>395</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" t="s">
+        <v>394</v>
+      </c>
+      <c r="H132" t="s">
         <v>396</v>
-      </c>
-      <c r="D132" t="s">
-        <v>397</v>
-      </c>
-      <c r="E132" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s">
-        <v>396</v>
-      </c>
-      <c r="H132" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
+        <v>397</v>
+      </c>
+      <c r="E133" t="s">
+        <v>398</v>
+      </c>
+      <c r="F133" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" t="s">
         <v>399</v>
-      </c>
-      <c r="E133" t="s">
-        <v>400</v>
-      </c>
-      <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s">
-        <v>14</v>
-      </c>
-      <c r="H133" t="s">
-        <v>15</v>
-      </c>
-      <c r="I133" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E134" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G134" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H134" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E135" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G135" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H135" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E136" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H136" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E137" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G137" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H137" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I137" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>408</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" t="s">
+        <v>409</v>
+      </c>
+      <c r="E138" t="s">
         <v>410</v>
       </c>
-      <c r="B138" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="F138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" t="s">
         <v>411</v>
-      </c>
-      <c r="E138" t="s">
-        <v>412</v>
-      </c>
-      <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s">
-        <v>14</v>
-      </c>
-      <c r="H138" t="s">
-        <v>15</v>
-      </c>
-      <c r="I138" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>412</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s">
+        <v>413</v>
+      </c>
+      <c r="E139" t="s">
         <v>414</v>
       </c>
-      <c r="B139" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="F139" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" t="s">
         <v>415</v>
-      </c>
-      <c r="E139" t="s">
-        <v>416</v>
-      </c>
-      <c r="F139" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" t="s">
-        <v>14</v>
-      </c>
-      <c r="H139" t="s">
-        <v>15</v>
-      </c>
-      <c r="I139" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I140" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I141" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>420</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>421</v>
+      </c>
+      <c r="E142" t="s">
+        <v>127</v>
+      </c>
+      <c r="F142" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" t="s">
         <v>422</v>
-      </c>
-      <c r="B142" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s">
-        <v>423</v>
-      </c>
-      <c r="E142" t="s">
-        <v>129</v>
-      </c>
-      <c r="F142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" t="s">
-        <v>14</v>
-      </c>
-      <c r="H142" t="s">
-        <v>15</v>
-      </c>
-      <c r="I142" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>423</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s">
+        <v>424</v>
+      </c>
+      <c r="E143" t="s">
+        <v>70</v>
+      </c>
+      <c r="F143" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" t="s">
         <v>425</v>
-      </c>
-      <c r="B143" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s">
-        <v>426</v>
-      </c>
-      <c r="E143" t="s">
-        <v>72</v>
-      </c>
-      <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" t="s">
-        <v>14</v>
-      </c>
-      <c r="H143" t="s">
-        <v>15</v>
-      </c>
-      <c r="I143" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>426</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>427</v>
+      </c>
+      <c r="E144" t="s">
+        <v>423</v>
+      </c>
+      <c r="F144" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="s">
+        <v>13</v>
+      </c>
+      <c r="I144" t="s">
         <v>428</v>
-      </c>
-      <c r="B144" t="s">
-        <v>10</v>
-      </c>
-      <c r="C144" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s">
-        <v>429</v>
-      </c>
-      <c r="E144" t="s">
-        <v>425</v>
-      </c>
-      <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s">
-        <v>14</v>
-      </c>
-      <c r="H144" t="s">
-        <v>15</v>
-      </c>
-      <c r="I144" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I145" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
+        <v>431</v>
+      </c>
+      <c r="E146" t="s">
+        <v>432</v>
+      </c>
+      <c r="F146" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="s">
+        <v>13</v>
+      </c>
+      <c r="I146" t="s">
         <v>433</v>
-      </c>
-      <c r="E146" t="s">
-        <v>434</v>
-      </c>
-      <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s">
-        <v>14</v>
-      </c>
-      <c r="H146" t="s">
-        <v>15</v>
-      </c>
-      <c r="I146" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>434</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" t="s">
+        <v>435</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" t="s">
         <v>436</v>
       </c>
-      <c r="B147" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" t="s">
         <v>437</v>
-      </c>
-      <c r="E147" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" t="s">
-        <v>438</v>
-      </c>
-      <c r="G147" t="s">
-        <v>14</v>
-      </c>
-      <c r="H147" t="s">
-        <v>15</v>
-      </c>
-      <c r="I147" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
+        <v>438</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" t="s">
+        <v>439</v>
+      </c>
+      <c r="E148" t="s">
+        <v>169</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" t="s">
         <v>440</v>
-      </c>
-      <c r="B148" t="s">
-        <v>10</v>
-      </c>
-      <c r="C148" t="s">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s">
-        <v>441</v>
-      </c>
-      <c r="E148" t="s">
-        <v>171</v>
-      </c>
-      <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" t="s">
-        <v>14</v>
-      </c>
-      <c r="H148" t="s">
-        <v>15</v>
-      </c>
-      <c r="I148" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>441</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" t="s">
+        <v>442</v>
+      </c>
+      <c r="E149" t="s">
         <v>443</v>
       </c>
-      <c r="B149" t="s">
-        <v>10</v>
-      </c>
-      <c r="C149" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="F149" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" t="s">
+        <v>13</v>
+      </c>
+      <c r="I149" t="s">
         <v>444</v>
-      </c>
-      <c r="E149" t="s">
-        <v>445</v>
-      </c>
-      <c r="F149" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" t="s">
-        <v>14</v>
-      </c>
-      <c r="H149" t="s">
-        <v>15</v>
-      </c>
-      <c r="I149" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>445</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" t="s">
+        <v>446</v>
+      </c>
+      <c r="E150" t="s">
+        <v>93</v>
+      </c>
+      <c r="F150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" t="s">
         <v>447</v>
-      </c>
-      <c r="B150" t="s">
-        <v>10</v>
-      </c>
-      <c r="C150" t="s">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s">
-        <v>448</v>
-      </c>
-      <c r="E150" t="s">
-        <v>95</v>
-      </c>
-      <c r="F150" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" t="s">
-        <v>14</v>
-      </c>
-      <c r="H150" t="s">
-        <v>15</v>
-      </c>
-      <c r="I150" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
+        <v>448</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" t="s">
+        <v>449</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151" t="s">
         <v>450</v>
-      </c>
-      <c r="B151" t="s">
-        <v>10</v>
-      </c>
-      <c r="C151" t="s">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s">
-        <v>451</v>
-      </c>
-      <c r="E151" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" t="s">
-        <v>14</v>
-      </c>
-      <c r="H151" t="s">
-        <v>15</v>
-      </c>
-      <c r="I151" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>451</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>452</v>
+      </c>
+      <c r="E152" t="s">
+        <v>334</v>
+      </c>
+      <c r="F152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" t="s">
         <v>453</v>
-      </c>
-      <c r="B152" t="s">
-        <v>10</v>
-      </c>
-      <c r="C152" t="s">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s">
-        <v>454</v>
-      </c>
-      <c r="E152" t="s">
-        <v>336</v>
-      </c>
-      <c r="F152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" t="s">
-        <v>14</v>
-      </c>
-      <c r="H152" t="s">
-        <v>15</v>
-      </c>
-      <c r="I152" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
+        <v>454</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>455</v>
+      </c>
+      <c r="E153" t="s">
+        <v>29</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" t="s">
         <v>456</v>
-      </c>
-      <c r="B153" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s">
-        <v>457</v>
-      </c>
-      <c r="E153" t="s">
-        <v>31</v>
-      </c>
-      <c r="F153" t="s">
-        <v>13</v>
-      </c>
-      <c r="G153" t="s">
-        <v>14</v>
-      </c>
-      <c r="H153" t="s">
-        <v>15</v>
-      </c>
-      <c r="I153" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E154" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H154" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I154" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
+        <v>459</v>
+      </c>
+      <c r="E155" t="s">
+        <v>460</v>
+      </c>
+      <c r="F155" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" t="s">
+        <v>13</v>
+      </c>
+      <c r="I155" t="s">
         <v>461</v>
-      </c>
-      <c r="E155" t="s">
-        <v>462</v>
-      </c>
-      <c r="F155" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" t="s">
-        <v>14</v>
-      </c>
-      <c r="H155" t="s">
-        <v>15</v>
-      </c>
-      <c r="I155" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>462</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" t="s">
+        <v>463</v>
+      </c>
+      <c r="E156" t="s">
         <v>464</v>
       </c>
-      <c r="B156" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" t="s">
         <v>465</v>
-      </c>
-      <c r="E156" t="s">
-        <v>466</v>
-      </c>
-      <c r="F156" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" t="s">
-        <v>14</v>
-      </c>
-      <c r="H156" t="s">
-        <v>15</v>
-      </c>
-      <c r="I156" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>466</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>467</v>
+      </c>
+      <c r="E157" t="s">
         <v>468</v>
       </c>
-      <c r="B157" t="s">
-        <v>10</v>
-      </c>
-      <c r="C157" t="s">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s">
-        <v>469</v>
-      </c>
-      <c r="E157" t="s">
-        <v>470</v>
-      </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
+        <v>469</v>
+      </c>
+      <c r="E158" t="s">
+        <v>470</v>
+      </c>
+      <c r="F158" t="s">
+        <v>209</v>
+      </c>
+      <c r="G158" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" t="s">
+        <v>13</v>
+      </c>
+      <c r="I158" t="s">
         <v>471</v>
-      </c>
-      <c r="E158" t="s">
-        <v>472</v>
-      </c>
-      <c r="F158" t="s">
-        <v>211</v>
-      </c>
-      <c r="G158" t="s">
-        <v>14</v>
-      </c>
-      <c r="H158" t="s">
-        <v>15</v>
-      </c>
-      <c r="I158" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E159" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G159" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H159" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E160" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E161" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
+        <v>478</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" t="s">
+        <v>479</v>
+      </c>
+      <c r="E162" t="s">
+        <v>221</v>
+      </c>
+      <c r="F162" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" t="s">
         <v>480</v>
-      </c>
-      <c r="B162" t="s">
-        <v>10</v>
-      </c>
-      <c r="C162" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s">
-        <v>481</v>
-      </c>
-      <c r="E162" t="s">
-        <v>223</v>
-      </c>
-      <c r="F162" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" t="s">
-        <v>14</v>
-      </c>
-      <c r="H162" t="s">
-        <v>15</v>
-      </c>
-      <c r="I162" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>481</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" t="s">
+        <v>482</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" t="s">
+        <v>11</v>
+      </c>
+      <c r="G163" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" t="s">
+        <v>13</v>
+      </c>
+      <c r="I163" t="s">
         <v>483</v>
-      </c>
-      <c r="B163" t="s">
-        <v>10</v>
-      </c>
-      <c r="C163" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s">
-        <v>484</v>
-      </c>
-      <c r="E163" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" t="s">
-        <v>14</v>
-      </c>
-      <c r="H163" t="s">
-        <v>15</v>
-      </c>
-      <c r="I163" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>484</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>485</v>
+      </c>
+      <c r="E164" t="s">
+        <v>233</v>
+      </c>
+      <c r="F164" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" t="s">
+        <v>13</v>
+      </c>
+      <c r="I164" t="s">
         <v>486</v>
-      </c>
-      <c r="B164" t="s">
-        <v>10</v>
-      </c>
-      <c r="C164" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s">
-        <v>487</v>
-      </c>
-      <c r="E164" t="s">
-        <v>235</v>
-      </c>
-      <c r="F164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" t="s">
-        <v>14</v>
-      </c>
-      <c r="H164" t="s">
-        <v>15</v>
-      </c>
-      <c r="I164" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>487</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" t="s">
+        <v>488</v>
+      </c>
+      <c r="E165" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" t="s">
+        <v>13</v>
+      </c>
+      <c r="I165" t="s">
         <v>489</v>
-      </c>
-      <c r="B165" t="s">
-        <v>10</v>
-      </c>
-      <c r="C165" t="s">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s">
-        <v>490</v>
-      </c>
-      <c r="E165" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" t="s">
-        <v>14</v>
-      </c>
-      <c r="H165" t="s">
-        <v>15</v>
-      </c>
-      <c r="I165" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H166" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I166" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
+        <v>492</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" t="s">
+        <v>493</v>
+      </c>
+      <c r="E167" t="s">
+        <v>127</v>
+      </c>
+      <c r="F167" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" t="s">
+        <v>13</v>
+      </c>
+      <c r="I167" t="s">
         <v>494</v>
-      </c>
-      <c r="B167" t="s">
-        <v>10</v>
-      </c>
-      <c r="C167" t="s">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s">
-        <v>495</v>
-      </c>
-      <c r="E167" t="s">
-        <v>129</v>
-      </c>
-      <c r="F167" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" t="s">
-        <v>14</v>
-      </c>
-      <c r="H167" t="s">
-        <v>15</v>
-      </c>
-      <c r="I167" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
+        <v>495</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" t="s">
+        <v>496</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" t="s">
+        <v>12</v>
+      </c>
+      <c r="H168" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" t="s">
         <v>497</v>
-      </c>
-      <c r="B168" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s">
-        <v>498</v>
-      </c>
-      <c r="E168" t="s">
-        <v>13</v>
-      </c>
-      <c r="F168" t="s">
-        <v>13</v>
-      </c>
-      <c r="G168" t="s">
-        <v>14</v>
-      </c>
-      <c r="H168" t="s">
-        <v>15</v>
-      </c>
-      <c r="I168" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>498</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" t="s">
+        <v>499</v>
+      </c>
+      <c r="E169" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169" t="s">
+        <v>12</v>
+      </c>
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+      <c r="I169" t="s">
         <v>500</v>
-      </c>
-      <c r="B169" t="s">
-        <v>10</v>
-      </c>
-      <c r="C169" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s">
-        <v>501</v>
-      </c>
-      <c r="E169" t="s">
-        <v>13</v>
-      </c>
-      <c r="F169" t="s">
-        <v>13</v>
-      </c>
-      <c r="G169" t="s">
-        <v>14</v>
-      </c>
-      <c r="H169" t="s">
-        <v>15</v>
-      </c>
-      <c r="I169" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
+        <v>501</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" t="s">
+        <v>502</v>
+      </c>
+      <c r="E170" t="s">
+        <v>142</v>
+      </c>
+      <c r="F170" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" t="s">
         <v>503</v>
-      </c>
-      <c r="B170" t="s">
-        <v>10</v>
-      </c>
-      <c r="C170" t="s">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s">
-        <v>504</v>
-      </c>
-      <c r="E170" t="s">
-        <v>144</v>
-      </c>
-      <c r="F170" t="s">
-        <v>13</v>
-      </c>
-      <c r="G170" t="s">
-        <v>14</v>
-      </c>
-      <c r="H170" t="s">
-        <v>15</v>
-      </c>
-      <c r="I170" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
+        <v>504</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
+        <v>505</v>
+      </c>
+      <c r="E171" t="s">
         <v>506</v>
       </c>
-      <c r="B171" t="s">
-        <v>10</v>
-      </c>
-      <c r="C171" t="s">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="F171" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" t="s">
         <v>507</v>
-      </c>
-      <c r="E171" t="s">
-        <v>508</v>
-      </c>
-      <c r="F171" t="s">
-        <v>13</v>
-      </c>
-      <c r="G171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H171" t="s">
-        <v>15</v>
-      </c>
-      <c r="I171" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
+        <v>508</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>509</v>
+      </c>
+      <c r="E172" t="s">
         <v>510</v>
       </c>
-      <c r="B172" t="s">
-        <v>10</v>
-      </c>
-      <c r="C172" t="s">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="F172" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" t="s">
+        <v>12</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" t="s">
         <v>511</v>
-      </c>
-      <c r="E172" t="s">
-        <v>512</v>
-      </c>
-      <c r="F172" t="s">
-        <v>13</v>
-      </c>
-      <c r="G172" t="s">
-        <v>14</v>
-      </c>
-      <c r="H172" t="s">
-        <v>15</v>
-      </c>
-      <c r="I172" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>512</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
+        <v>513</v>
+      </c>
+      <c r="E173" t="s">
         <v>514</v>
       </c>
-      <c r="B173" t="s">
-        <v>10</v>
-      </c>
-      <c r="C173" t="s">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="F173" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+      <c r="I173" t="s">
         <v>515</v>
-      </c>
-      <c r="E173" t="s">
-        <v>516</v>
-      </c>
-      <c r="F173" t="s">
-        <v>13</v>
-      </c>
-      <c r="G173" t="s">
-        <v>14</v>
-      </c>
-      <c r="H173" t="s">
-        <v>15</v>
-      </c>
-      <c r="I173" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
+        <v>516</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" t="s">
+        <v>517</v>
+      </c>
+      <c r="E174" t="s">
+        <v>155</v>
+      </c>
+      <c r="F174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" t="s">
+        <v>13</v>
+      </c>
+      <c r="I174" t="s">
         <v>518</v>
-      </c>
-      <c r="B174" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174" t="s">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s">
-        <v>519</v>
-      </c>
-      <c r="E174" t="s">
-        <v>157</v>
-      </c>
-      <c r="F174" t="s">
-        <v>13</v>
-      </c>
-      <c r="G174" t="s">
-        <v>14</v>
-      </c>
-      <c r="H174" t="s">
-        <v>15</v>
-      </c>
-      <c r="I174" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>519</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" t="s">
+        <v>520</v>
+      </c>
+      <c r="E175" t="s">
+        <v>516</v>
+      </c>
+      <c r="F175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" t="s">
+        <v>13</v>
+      </c>
+      <c r="I175" t="s">
         <v>521</v>
-      </c>
-      <c r="B175" t="s">
-        <v>10</v>
-      </c>
-      <c r="C175" t="s">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s">
-        <v>522</v>
-      </c>
-      <c r="E175" t="s">
-        <v>518</v>
-      </c>
-      <c r="F175" t="s">
-        <v>13</v>
-      </c>
-      <c r="G175" t="s">
-        <v>14</v>
-      </c>
-      <c r="H175" t="s">
-        <v>15</v>
-      </c>
-      <c r="I175" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
+        <v>522</v>
+      </c>
+      <c r="E176" t="s">
+        <v>523</v>
+      </c>
+      <c r="F176" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176" t="s">
+        <v>12</v>
+      </c>
+      <c r="H176" t="s">
+        <v>13</v>
+      </c>
+      <c r="I176" t="s">
         <v>524</v>
-      </c>
-      <c r="E176" t="s">
-        <v>525</v>
-      </c>
-      <c r="F176" t="s">
-        <v>13</v>
-      </c>
-      <c r="G176" t="s">
-        <v>14</v>
-      </c>
-      <c r="H176" t="s">
-        <v>15</v>
-      </c>
-      <c r="I176" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E177" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G177" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H177" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>527</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" t="s">
+        <v>528</v>
+      </c>
+      <c r="E178" t="s">
+        <v>525</v>
+      </c>
+      <c r="F178" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" t="s">
+        <v>12</v>
+      </c>
+      <c r="H178" t="s">
+        <v>13</v>
+      </c>
+      <c r="I178" t="s">
         <v>529</v>
-      </c>
-      <c r="B178" t="s">
-        <v>10</v>
-      </c>
-      <c r="C178" t="s">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s">
-        <v>530</v>
-      </c>
-      <c r="E178" t="s">
-        <v>527</v>
-      </c>
-      <c r="F178" t="s">
-        <v>13</v>
-      </c>
-      <c r="G178" t="s">
-        <v>14</v>
-      </c>
-      <c r="H178" t="s">
-        <v>15</v>
-      </c>
-      <c r="I178" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
+        <v>530</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" t="s">
+        <v>531</v>
+      </c>
+      <c r="E179" t="s">
+        <v>331</v>
+      </c>
+      <c r="F179" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179" t="s">
+        <v>12</v>
+      </c>
+      <c r="H179" t="s">
+        <v>13</v>
+      </c>
+      <c r="I179" t="s">
         <v>532</v>
-      </c>
-      <c r="B179" t="s">
-        <v>10</v>
-      </c>
-      <c r="C179" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s">
-        <v>533</v>
-      </c>
-      <c r="E179" t="s">
-        <v>333</v>
-      </c>
-      <c r="F179" t="s">
-        <v>13</v>
-      </c>
-      <c r="G179" t="s">
-        <v>14</v>
-      </c>
-      <c r="H179" t="s">
-        <v>15</v>
-      </c>
-      <c r="I179" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E180" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G180" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H180" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H181" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E182" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G182" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H182" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I182" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
+        <v>539</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" t="s">
+        <v>540</v>
+      </c>
+      <c r="E183" t="s">
         <v>541</v>
       </c>
-      <c r="B183" t="s">
-        <v>10</v>
-      </c>
-      <c r="C183" t="s">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="F183" t="s">
+        <v>11</v>
+      </c>
+      <c r="G183" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" t="s">
+        <v>13</v>
+      </c>
+      <c r="I183" t="s">
         <v>542</v>
-      </c>
-      <c r="E183" t="s">
-        <v>543</v>
-      </c>
-      <c r="F183" t="s">
-        <v>13</v>
-      </c>
-      <c r="G183" t="s">
-        <v>14</v>
-      </c>
-      <c r="H183" t="s">
-        <v>15</v>
-      </c>
-      <c r="I183" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E184" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G184" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H184" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I184" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
+        <v>545</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" t="s">
+        <v>546</v>
+      </c>
+      <c r="E185" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" t="s">
+        <v>11</v>
+      </c>
+      <c r="G185" t="s">
+        <v>12</v>
+      </c>
+      <c r="H185" t="s">
+        <v>13</v>
+      </c>
+      <c r="I185" t="s">
         <v>547</v>
-      </c>
-      <c r="B185" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185" t="s">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s">
-        <v>548</v>
-      </c>
-      <c r="E185" t="s">
-        <v>13</v>
-      </c>
-      <c r="F185" t="s">
-        <v>13</v>
-      </c>
-      <c r="G185" t="s">
-        <v>14</v>
-      </c>
-      <c r="H185" t="s">
-        <v>15</v>
-      </c>
-      <c r="I185" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E186" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G186" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H186" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E187" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G187" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H187" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E188" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G188" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H188" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E189" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F189" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G189" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H189" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I189" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E190" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G190" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H190" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G191" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H191" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B192" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G192" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H192" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>561</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" t="s">
+        <v>562</v>
+      </c>
+      <c r="E193" t="s">
+        <v>559</v>
+      </c>
+      <c r="F193" t="s">
+        <v>11</v>
+      </c>
+      <c r="G193" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" t="s">
+        <v>13</v>
+      </c>
+      <c r="I193" t="s">
         <v>563</v>
-      </c>
-      <c r="B193" t="s">
-        <v>10</v>
-      </c>
-      <c r="C193" t="s">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s">
-        <v>564</v>
-      </c>
-      <c r="E193" t="s">
-        <v>561</v>
-      </c>
-      <c r="F193" t="s">
-        <v>13</v>
-      </c>
-      <c r="G193" t="s">
-        <v>14</v>
-      </c>
-      <c r="H193" t="s">
-        <v>15</v>
-      </c>
-      <c r="I193" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E194" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G194" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H194" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G195" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H195" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/CA.xlsx
+++ b/Departments/CA.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EC942E-19EE-419B-8A29-EE18D33DADFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3726AF8-58A5-46AC-A0D0-B2B1199E6C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{B187D5D7-0D68-4E5E-975E-9B1E3E0FF1A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B187D5D7-0D68-4E5E-975E-9B1E3E0FF1A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="596">
   <si>
     <t>Course_Code</t>
   </si>
@@ -99,9 +102,6 @@
     <t>CA124</t>
   </si>
   <si>
-    <t>REQ: CA (or FPA) 122. Corequisite: CA 123 and CA 124 must be taken concurrently. Students with credit for FPA 123 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA129</t>
   </si>
   <si>
@@ -117,9 +117,6 @@
     <t>CA130</t>
   </si>
   <si>
-    <t>REQ-CA (or FPA) 130 and prior approval.  Students with credit for FPA 131 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA137</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>CA 161 - Introductory Studio in Visual Art II</t>
   </si>
   <si>
-    <t>REQ- CA (or FPA) 160.  Students with credit for FPA 161 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA170</t>
   </si>
   <si>
@@ -228,21 +222,12 @@
     <t>CA118,FALX99</t>
   </si>
   <si>
-    <t>REQ: 21 units including six in CA (or FPA) history/theory courses and CA (or FPA) 168 or CA 118.  Students with credit for CA (or FPA 210) may not take this course for further credit. Writing.</t>
-  </si>
-  <si>
     <t>CA216</t>
   </si>
   <si>
     <t>CA 216 - Selected Topics in Cinema Studies</t>
   </si>
   <si>
-    <t>CA135,CA136,CA137,CA186,CA235,CA236,CA316,CA318,CA416</t>
-  </si>
-  <si>
-    <t>REQ: One of CA 135, 136, 137, 186, 235, 236, 316 (or 337), 318 (or 335), 416 (or 436), or 30 units.  Students with credit for CA 237 under the same topic may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA217</t>
   </si>
   <si>
@@ -258,9 +243,6 @@
     <t>CA220</t>
   </si>
   <si>
-    <t>REQ-CA (or FPA) 220.  Students with credit for FPA 221 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA228W</t>
   </si>
   <si>
@@ -276,15 +258,9 @@
     <t>CA 230 - Filmmaking II</t>
   </si>
   <si>
-    <t>CA131,CA136,CA137</t>
-  </si>
-  <si>
     <t>CA233</t>
   </si>
   <si>
-    <t>Prereq: CA (or FPA) 131, and CA (or FPA) 136 or 137, and prior approval. Coreq: CA 233.</t>
-  </si>
-  <si>
     <t>CA235</t>
   </si>
   <si>
@@ -294,9 +270,6 @@
     <t>CA117,CA118,CA135,CA136,CA137</t>
   </si>
   <si>
-    <t>Prerequisite:    One of CA (or FPA) 117 (or 167), 118 (or 168), 135, 136 or 137 or 30 units.</t>
-  </si>
-  <si>
     <t>CA238W</t>
   </si>
   <si>
@@ -306,9 +279,6 @@
     <t>CA136,CA137,CA253,FALX99</t>
   </si>
   <si>
-    <t>REQ-One of CA (or FPA) 136, 137 or 253 and prior approval.  Students with credit for CA (or FPA) 332 or 238 for credit may not take this course for further credit. Students with credit for FPA 238W may not take this course for further credit. Writing</t>
-  </si>
-  <si>
     <t>CA242</t>
   </si>
   <si>
@@ -378,9 +348,6 @@
     <t>CA260</t>
   </si>
   <si>
-    <t>REQ- CA (or FPA) 260. A course materials fee is required.  Students with credit for FPA 261 may not take this course for further credit..</t>
-  </si>
-  <si>
     <t>CA262</t>
   </si>
   <si>
@@ -399,21 +366,12 @@
     <t>CA 271 - Production Lab IV</t>
   </si>
   <si>
-    <t>CA170,FANX99</t>
-  </si>
-  <si>
-    <t>REQ-CA (or FPA) 170.   Quantitative.</t>
-  </si>
-  <si>
     <t>CA289</t>
   </si>
   <si>
     <t>CA 289 - Selected Topics in the Contemporary Arts</t>
   </si>
   <si>
-    <t>REQ-15 CA (or FPA) units.</t>
-  </si>
-  <si>
     <t>CA306</t>
   </si>
   <si>
@@ -444,15 +402,6 @@
     <t>REQ- A minimum of 30 units and permission of Field School Director.</t>
   </si>
   <si>
-    <t>CA312</t>
-  </si>
-  <si>
-    <t>CA 312 - Selected Topics in Contemporary Arts</t>
-  </si>
-  <si>
-    <t>REQ-45 units.</t>
-  </si>
-  <si>
     <t>CA312W</t>
   </si>
   <si>
@@ -465,12 +414,6 @@
     <t>CA 314 - Readings in the History of Art, Performance and Cinema</t>
   </si>
   <si>
-    <t>CA117,CA186,CA210W</t>
-  </si>
-  <si>
-    <t>Prerequisite:    CA (or FPA) 117 (or 167), 186, 210W (or 210).</t>
-  </si>
-  <si>
     <t>CA315</t>
   </si>
   <si>
@@ -486,18 +429,12 @@
     <t>CA136,CA137</t>
   </si>
   <si>
-    <t>REQ-Nine units in CA courses including CA 136 or 137.</t>
-  </si>
-  <si>
     <t>CA318</t>
   </si>
   <si>
     <t>CA 318 - Theory and Cinema</t>
   </si>
   <si>
-    <t>REQ:  Six units from among CA (or FPA) 136, 137, 216 (or 237), 236.  Students who have credit for CA (or FPA) 234 may not take this course for further credit. Students with credit for CA (or FPA) 335 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA319W</t>
   </si>
   <si>
@@ -513,9 +450,6 @@
     <t>CA322</t>
   </si>
   <si>
-    <t>REQ-  CA (or FPA) 322 or prior approval.</t>
-  </si>
-  <si>
     <t>CA327</t>
   </si>
   <si>
@@ -537,9 +471,6 @@
     <t>CA 329 - Selected Topics in Dance II</t>
   </si>
   <si>
-    <t>REQ-CA (or FPA) 221 or prior approval.</t>
-  </si>
-  <si>
     <t>CA334</t>
   </si>
   <si>
@@ -549,18 +480,12 @@
     <t>CA231</t>
   </si>
   <si>
-    <t>REQ-CA (or FPA) 231 and prior approval.</t>
-  </si>
-  <si>
     <t>CA338W</t>
   </si>
   <si>
     <t>CA 338W - Writing for Film</t>
   </si>
   <si>
-    <t>CA238W,CA457,FALX99</t>
-  </si>
-  <si>
     <t>CA342</t>
   </si>
   <si>
@@ -600,9 +525,6 @@
     <t>CA 349 - Selected Topics in Music II</t>
   </si>
   <si>
-    <t>REQ- CA (or FPA) 245. May repeat for further credit.</t>
-  </si>
-  <si>
     <t>CA350</t>
   </si>
   <si>
@@ -630,9 +552,6 @@
     <t>CA 359 - Selected Topics in Theatre</t>
   </si>
   <si>
-    <t>REQ- CA 250, or prior approval.</t>
-  </si>
-  <si>
     <t>CA360</t>
   </si>
   <si>
@@ -675,21 +594,12 @@
     <t>CA361</t>
   </si>
   <si>
-    <t>REQ-CA (or FPA) 366. Corequisite: CA 361.  Students with credit for FPA 367 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA370</t>
   </si>
   <si>
     <t>CA 370 - Production Lab V</t>
   </si>
   <si>
-    <t>CA270,CA271</t>
-  </si>
-  <si>
-    <t>REQ- CA (or FPA) 270 and 271 or prior approval.</t>
-  </si>
-  <si>
     <t>CA371</t>
   </si>
   <si>
@@ -705,21 +615,6 @@
     <t>CA270</t>
   </si>
   <si>
-    <t>REQ-  CA (or FPA) 270 or prior approval.  Students with credit for FPA 375 may not take this course for further credit.</t>
-  </si>
-  <si>
-    <t>CA376</t>
-  </si>
-  <si>
-    <t>CA 376 - STT-Video Projection for Performance and Installation II</t>
-  </si>
-  <si>
-    <t>CA270,CA276</t>
-  </si>
-  <si>
-    <t>REQ-CA 270, CA 276, or permission of instructor.</t>
-  </si>
-  <si>
     <t>CA386</t>
   </si>
   <si>
@@ -735,18 +630,6 @@
     <t>CA 389 - Selected Topics in the Contemporary Arts II</t>
   </si>
   <si>
-    <t>REQ-  30 units of CA (or FPA) courses. May be of particular interest to students in other departments.</t>
-  </si>
-  <si>
-    <t>CA390</t>
-  </si>
-  <si>
-    <t>CA 390 - Filmmaking IV</t>
-  </si>
-  <si>
-    <t>REQ- CA (or FPA) 231 or approval of instructor.  Students with credit for FPA 390 may not take this course for further credit..</t>
-  </si>
-  <si>
     <t>CA405</t>
   </si>
   <si>
@@ -774,18 +657,12 @@
     <t>CA210W,CA316,CA318,CA357W,FALX99</t>
   </si>
   <si>
-    <t>REQ-  Eight upper division units; and one of CA (or FPA) 210W (or 210), 316 (or 337), 318 (or 335), or 357W.   Writing</t>
-  </si>
-  <si>
     <t>CA 421 - Choreographic Lab</t>
   </si>
   <si>
     <t>CA124,CA285,CA324,CA326,CA327</t>
   </si>
   <si>
-    <t>REQ: CA (or FPA) 124, 285, 324 and (326 or 327).</t>
-  </si>
-  <si>
     <t>CA424</t>
   </si>
   <si>
@@ -807,21 +684,9 @@
     <t>CA124,CA150,CA285</t>
   </si>
   <si>
-    <t>REQ-CA (or FPA) 124 or 150 and 285.  Students with credit for FPA 426 may not take this course for further credit.</t>
-  </si>
-  <si>
-    <t>CA432</t>
-  </si>
-  <si>
-    <t>CA 432 - Filmmaking VII</t>
-  </si>
-  <si>
     <t>CA430</t>
   </si>
   <si>
-    <t>REQ-CA (or FPA) 430.  Students with credit for FPA 432 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA440</t>
   </si>
   <si>
@@ -867,9 +732,6 @@
     <t>CA460</t>
   </si>
   <si>
-    <t>REQ-CA (or FPA) 460 and status as an approved major in visual art.  Students with credit for FPA 461 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA462</t>
   </si>
   <si>
@@ -879,9 +741,6 @@
     <t>CA361,CA367</t>
   </si>
   <si>
-    <t>REQ-CA (or FPA) 361, 367 and admission into the Visual Art Honours Program.  Students with credit for FPA 462 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA485</t>
   </si>
   <si>
@@ -1008,21 +867,12 @@
     <t>CA 233 - The Techniques of Film</t>
   </si>
   <si>
-    <t>Prerequisite: CA (or FPA) 131 and prior approval. Corequisite: CA 230. Students with credit for FPA 233 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA236</t>
   </si>
   <si>
     <t>CA 236 - Cinema in Canada</t>
   </si>
   <si>
-    <t>CA135,CA136,CA186,CA235</t>
-  </si>
-  <si>
-    <t>REQ-3 units in film studies (CA (or FPA) 135, 136, 186, 235, 237, 335, 337, 436) or 30 units.  Students with credit for FPA 236 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA 240 - Soundbox I</t>
   </si>
   <si>
@@ -1179,12 +1029,6 @@
     <t>CA 171 - Production Lab II</t>
   </si>
   <si>
-    <t>CA174</t>
-  </si>
-  <si>
-    <t>CA 174 - Transforming Objects</t>
-  </si>
-  <si>
     <t>CA 220 - Dance Training and Movement Systems III</t>
   </si>
   <si>
@@ -1200,27 +1044,15 @@
     <t>CA 229 - Selected Topics in Dance I</t>
   </si>
   <si>
-    <t>REQ- CA (or FPA) 220 or prior approval.</t>
-  </si>
-  <si>
     <t>CA 231 - Filmmaking III</t>
   </si>
   <si>
-    <t>CA230,CA233</t>
-  </si>
-  <si>
-    <t>REQ-CA (or FPA) 230 and CA (or FPA) 233.  Students with credit for FPA 231 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA232</t>
   </si>
   <si>
     <t>CA 232 - Film Sound</t>
   </si>
   <si>
-    <t>REQ-  CA (or FPA) 131.  Students with credit for FPA 232 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>EDUC</t>
   </si>
   <si>
@@ -1260,21 +1092,6 @@
     <t>CA 270 - Production Lab III</t>
   </si>
   <si>
-    <t>REQ- CA (or FPA) 170.</t>
-  </si>
-  <si>
-    <t>CA276</t>
-  </si>
-  <si>
-    <t>CA 276 - STT-Video Projection for Performance and Installation</t>
-  </si>
-  <si>
-    <t>CA170,CA174</t>
-  </si>
-  <si>
-    <t>REQ-CA 174, CA 170 or permission of instructor.</t>
-  </si>
-  <si>
     <t>CA285</t>
   </si>
   <si>
@@ -1323,15 +1140,9 @@
     <t>CA 321 - Dance Training and Movement Systems VI</t>
   </si>
   <si>
-    <t>REQ-CA (or FPA) 320.  Students with credit for FPA 321 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA 322 - Intermediate Ballet I</t>
   </si>
   <si>
-    <t>REQ-  Acceptance into the dance major or extended minor program, or prior approval.</t>
-  </si>
-  <si>
     <t>CA 324 - Approaches to Composition</t>
   </si>
   <si>
@@ -1359,21 +1170,12 @@
     <t>CA 332 - Film Forms</t>
   </si>
   <si>
-    <t>REQ-CA (or FPA) 231 or prior approval.  Students with credit for FPA 332 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA339</t>
   </si>
   <si>
     <t>CA 339 - Film Forms</t>
   </si>
   <si>
-    <t>CA231,CA251</t>
-  </si>
-  <si>
-    <t>REQ-CA (or FPA) 231, or CA (or FPA) 251 with prior approval.  Students with credit for FPA 339 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA340</t>
   </si>
   <si>
@@ -1452,9 +1254,6 @@
     <t>CA360,CA366</t>
   </si>
   <si>
-    <t>REQ- parallel seminar course, CA 367. A course materials fee is required. Prerequisite:    CA (or FPA) 360 and 366. Corequisite: CA 367.  Students with credit for FPA 361 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA362</t>
   </si>
   <si>
@@ -1479,27 +1278,12 @@
     <t>CA 374 - Lighting II</t>
   </si>
   <si>
-    <t>REQ- CA (or FPA) 270 or prior approval.  Students with credit for FPA 374 may not take this course for further credit..</t>
-  </si>
-  <si>
     <t>CA381</t>
   </si>
   <si>
     <t>CA 381 - Thriving as a Cultural Entrepreneur</t>
   </si>
   <si>
-    <t>REQ-45 units.  Students with credit for FPA 381 may not take this course for further credit.</t>
-  </si>
-  <si>
-    <t>CA393</t>
-  </si>
-  <si>
-    <t>CA 393 - Filmmaking V</t>
-  </si>
-  <si>
-    <t>REQ- CA (or FPA) 390 or approval of instructor.  Students with credit for FPA 393 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA400</t>
   </si>
   <si>
@@ -1548,21 +1332,12 @@
     <t>CA 414 - Advanced Topic in the History of Art, Performance and Cinema</t>
   </si>
   <si>
-    <t>Prerequisite:    CA (or FPA) 117 (or 167), 186, 210W (or 210) and 45 units.</t>
-  </si>
-  <si>
     <t>CA416</t>
   </si>
   <si>
     <t>CA 416 - Advanced Seminar in Cinema Studies</t>
   </si>
   <si>
-    <t>CA316,CA318</t>
-  </si>
-  <si>
-    <t>REQ- CA (or FPA) 316 (or 337) or CA (or FPA) 318 (or 335).</t>
-  </si>
-  <si>
     <t>CA420</t>
   </si>
   <si>
@@ -1581,39 +1356,21 @@
     <t>CA 425 - Intensive Studies in Performance: Senior Projects</t>
   </si>
   <si>
-    <t>CA220,CA324</t>
-  </si>
-  <si>
-    <t>REQ-CA 220, 324.</t>
-  </si>
-  <si>
     <t>CA427</t>
   </si>
   <si>
     <t>CA 427 - Advanced Ballet I</t>
   </si>
   <si>
-    <t>REQ- CA (or FPA) 323 or prior approval.</t>
-  </si>
-  <si>
     <t>CA428</t>
   </si>
   <si>
     <t>CA 428 - Advanced Ballet II</t>
   </si>
   <si>
-    <t>REQ-CA (or FPA) 427 or prior approval.</t>
-  </si>
-  <si>
     <t>CA 430 - Filmmaking VI</t>
   </si>
   <si>
-    <t>CA149,CA186,CA231,CA285</t>
-  </si>
-  <si>
-    <t>REQ-CA (or FPA) 149, 186, 231, 285 and 10 units in film or cinema studies (CA (or FPA)135,136, 137,186,235,236,216 (or 237),318 (or 335),316(or 337),416(or 436)) plus prior approval. Students with credit for FPA 430 may not take this course for credit.</t>
-  </si>
-  <si>
     <t>CA445</t>
   </si>
   <si>
@@ -1665,9 +1422,6 @@
     <t>CA370,CA371</t>
   </si>
   <si>
-    <t>REQ-CA (or FPA) 370 or 371 and prior approval.</t>
-  </si>
-  <si>
     <t>CA471</t>
   </si>
   <si>
@@ -1680,9 +1434,6 @@
     <t>CA 489 - Interdisciplinary Project in Contemporary Arts</t>
   </si>
   <si>
-    <t>REQ-45 CA (or FPA) units.</t>
-  </si>
-  <si>
     <t>CA 811 - Interdisciplinary Graduate Seminar I</t>
   </si>
   <si>
@@ -1701,9 +1452,6 @@
     <t>CA 829 - Extended Essay in Contemporary Arts</t>
   </si>
   <si>
-    <t>REQ: CA (or FPA) 821 and two of the following: CA (or FPA) 823, 824, 825, 826, or 828.  Students with credit for FPA 829 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CA830</t>
   </si>
   <si>
@@ -1747,6 +1495,339 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>CA105</t>
+  </si>
+  <si>
+    <t>CA 105 - STT-Learning to Listen: Music Theory for Non-Musicians</t>
+  </si>
+  <si>
+    <t>CA110</t>
+  </si>
+  <si>
+    <t>CA 110 - Art, Performance and Cinema Studies: Introductory Seminar</t>
+  </si>
+  <si>
+    <t>REQ-Open to art, performance and cinema studies majors.</t>
+  </si>
+  <si>
+    <t>REQ-CA 122 and declared dance major, extended minor, or permission from instructor. Corequisite: CA 124 must be taken concurrently.</t>
+  </si>
+  <si>
+    <t>REQ-CA 122 or permission of instructor. Corequisite: CA 123.</t>
+  </si>
+  <si>
+    <t>REQ-Students with credit for CA 227 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-By audition for admission to the dance program and declared dance major or extended minor status. Corequisite: CA 122 must be taken concurrently.</t>
+  </si>
+  <si>
+    <t>REQ-Declared status in the film major, film honors or extended film minor.</t>
+  </si>
+  <si>
+    <t>REQ-CA 130</t>
+  </si>
+  <si>
+    <t>REQ-CA 160.</t>
+  </si>
+  <si>
+    <t>CA172</t>
+  </si>
+  <si>
+    <t>CA 172 - Scale Modelling I</t>
+  </si>
+  <si>
+    <t>CA175</t>
+  </si>
+  <si>
+    <t>CA 175 - Transforming Objects</t>
+  </si>
+  <si>
+    <t>CA185</t>
+  </si>
+  <si>
+    <t>CA 185 - Interdisciplinary Studio - Technical Foundations</t>
+  </si>
+  <si>
+    <t>REQ: CA 118. Students with credit for CA 210 may not take this course for further credit. Writing.</t>
+  </si>
+  <si>
+    <t>CA135,CA136,CA137,CA186</t>
+  </si>
+  <si>
+    <t>REQ-One of CA 135, 136, 137, or 186.   Breadth-Humanities.</t>
+  </si>
+  <si>
+    <t>REQ-Students with credit for CA 311 or CA 317 may not take this course for further credit.  Breadth-Humanities</t>
+  </si>
+  <si>
+    <t>REQ-CA 220.</t>
+  </si>
+  <si>
+    <t>REQ-CA 220 or prior approval.</t>
+  </si>
+  <si>
+    <t>Prereq: CA 131. Corequsite: CA 233.</t>
+  </si>
+  <si>
+    <t>REQ-CA 230.</t>
+  </si>
+  <si>
+    <t>REQ-CA 131</t>
+  </si>
+  <si>
+    <t>REQ-CA 131. Corequisite: CA 230.</t>
+  </si>
+  <si>
+    <t>REQ-One of CA 117, 118, 135, 136 or 137 or 30 units.</t>
+  </si>
+  <si>
+    <t>CA135,CA136,CA186,CA216,CA235,CA316,CA318</t>
+  </si>
+  <si>
+    <t>REQ-3 units in film or cinema studies (CA 135, 136, 186, 235, 216 (or 237), 316 (or 337), 318 (or 335)) or 30 units. Breadth-Humanities</t>
+  </si>
+  <si>
+    <t>REQ-One of CA 136, 137 or 253 and prior approval. Students with credit for CA 238 or 332 may not take this course for further credit. Writing</t>
+  </si>
+  <si>
+    <t>REQ- CA 260. A course materials fee is required.</t>
+  </si>
+  <si>
+    <t>REQ-CA 171. Students with credit for CA 270 under the title "Production Ensemble I" may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>CA270,FANX99</t>
+  </si>
+  <si>
+    <t>REQ-CA 270. Students with credit for CA 271 under the title "Production Ensemble II" may not take this course for further credit. Quantitative.</t>
+  </si>
+  <si>
+    <t>CA272</t>
+  </si>
+  <si>
+    <t>CA 272 - Scale Modelling II</t>
+  </si>
+  <si>
+    <t>REQ-CA 172 or permission of instructor.</t>
+  </si>
+  <si>
+    <t>CA274</t>
+  </si>
+  <si>
+    <t>CA 274 - Lighting I</t>
+  </si>
+  <si>
+    <t>CA275</t>
+  </si>
+  <si>
+    <t>CA 275 - Space and Materials I</t>
+  </si>
+  <si>
+    <t>REQ-CA 175 or permission of instructor.</t>
+  </si>
+  <si>
+    <t>CA278</t>
+  </si>
+  <si>
+    <t>CA 278 - Video and Projection I</t>
+  </si>
+  <si>
+    <t>REQ-CA 185; or 30 units; or permission of instructor.  Students with credit for CA 276 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-15 CA units.</t>
+  </si>
+  <si>
+    <t>CA210W,CA216,CA228W,CA235,CA236,CA257W,CA316,CA318,CA344</t>
+  </si>
+  <si>
+    <t>REQ-One of CA 210W, 216, 228W, 235, 236, 257W, 316, 318 or 344.</t>
+  </si>
+  <si>
+    <t>REQ-CA 136 or 137</t>
+  </si>
+  <si>
+    <t>REQ-6 units from among CA 136, 137, 216, 236. Recommended: CA 210W (or 210).</t>
+  </si>
+  <si>
+    <t>CA210W,CA216,CA228W,CA235,CA236,CA257W,CA316,CA318,CA344,FALX99</t>
+  </si>
+  <si>
+    <t>REQ-45 units, including one of CA 210W, 216, 228W, 235, 236, 257W, 316, 318 or 344. Students with credit for CA 319 may not take this course for further credit. Writing</t>
+  </si>
+  <si>
+    <t>REQ-CA 320</t>
+  </si>
+  <si>
+    <t>CA123,CA124</t>
+  </si>
+  <si>
+    <t>REQ- CA 123 and 124.</t>
+  </si>
+  <si>
+    <t>REQ-CA 123 and 124</t>
+  </si>
+  <si>
+    <t>REQ-CA 221 or prior approval.</t>
+  </si>
+  <si>
+    <t>CA330</t>
+  </si>
+  <si>
+    <t>CA 330 - Filmmaking IV</t>
+  </si>
+  <si>
+    <t>REQ-CA 231 and declared status in the film major or film honours.  Students with credit for CA 390 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>CA331</t>
+  </si>
+  <si>
+    <t>CA 331 - Filmmaking V</t>
+  </si>
+  <si>
+    <t>REQ-CA 330. Students with credit for CA 393 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>CA333</t>
+  </si>
+  <si>
+    <t>CA 333 - Film Forms</t>
+  </si>
+  <si>
+    <t>CA457,FALX99</t>
+  </si>
+  <si>
+    <t>REQ-36 units in CA courses, including CA 285</t>
+  </si>
+  <si>
+    <t>REQ-CA 245.</t>
+  </si>
+  <si>
+    <t>REQ-CA 252 or permission of instructor.</t>
+  </si>
+  <si>
+    <t>REQ-CA 360 and 366. Corequisite: CA 367.</t>
+  </si>
+  <si>
+    <t>REQ-CA 366. Corequisite: CA 361.</t>
+  </si>
+  <si>
+    <t>REQ-CA 271 or permission of instructor. Students with credit for CA 370 under the title "Production Ensemble III" may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-CA 271 or permission of instructor.</t>
+  </si>
+  <si>
+    <t>CA372</t>
+  </si>
+  <si>
+    <t>CA 372 - Project Management in the Arts</t>
+  </si>
+  <si>
+    <t>REQ-CA 274. Students with credit for CA 374 under the title "Stage Lighting" may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>CA377</t>
+  </si>
+  <si>
+    <t>CA 377 - Sound Design</t>
+  </si>
+  <si>
+    <t>CA378</t>
+  </si>
+  <si>
+    <t>CA 378 - Video and Projection II</t>
+  </si>
+  <si>
+    <t>REQ-45 units</t>
+  </si>
+  <si>
+    <t>REQ-30 units of CA courses.</t>
+  </si>
+  <si>
+    <t>REQ-Eight upper division units; and one of CA 210W (or 210), 316 (or 337), 318 (or 335), or 357W. Writing</t>
+  </si>
+  <si>
+    <t>REQ-60 units, including one of CA 210W, 216, 228W, 235, 236, 257W, 316, 318 or 344.</t>
+  </si>
+  <si>
+    <t>CA216,CA235,CA236,CA316,CA318</t>
+  </si>
+  <si>
+    <t>REQ-60 units, including one of CA 216, 235, 236, 316 or 318.</t>
+  </si>
+  <si>
+    <t>REQ-CA 124, 285, 324 and (326 or 327).</t>
+  </si>
+  <si>
+    <t>CA220,CA324,CA424</t>
+  </si>
+  <si>
+    <t>REQ-CA 220, 324, and 424.</t>
+  </si>
+  <si>
+    <t>REQ-CA 124 or 150 and 285.</t>
+  </si>
+  <si>
+    <t>CA322,CA323</t>
+  </si>
+  <si>
+    <t>REQ-One of CA 322 or 323.</t>
+  </si>
+  <si>
+    <t>REQ-CA 331.</t>
+  </si>
+  <si>
+    <t>CA431</t>
+  </si>
+  <si>
+    <t>CA 431 - Filmmaking VII</t>
+  </si>
+  <si>
+    <t>CA438</t>
+  </si>
+  <si>
+    <t>CA 438 - Creative Producing</t>
+  </si>
+  <si>
+    <t>REQ-55 units in CA courses or prior instructor approval.</t>
+  </si>
+  <si>
+    <t>REQ-CA 460 and status as an approved major in visual art.</t>
+  </si>
+  <si>
+    <t>REQ-CA 361, 367 and admission into the visual art honours program</t>
+  </si>
+  <si>
+    <t>REQ-CA 370 or 371; or permission of instructor.  Students with credit for CA 470 under the title "Production Ensemble V" may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-CA 370 or 371; or permission of instructor. Students with credit for CA 471 under the title "Production Ensemble VI" may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>CA475</t>
+  </si>
+  <si>
+    <t>CA 475 - Space and Materials III</t>
+  </si>
+  <si>
+    <t>CA275,CA375</t>
+  </si>
+  <si>
+    <t>REQ-CA 275 and CA 375; or permission of instructor</t>
+  </si>
+  <si>
+    <t>CA478</t>
+  </si>
+  <si>
+    <t>CA 478 - Video and Projection III</t>
+  </si>
+  <si>
+    <t>REQ-45 CA units</t>
   </si>
 </sst>
 </file>
@@ -2098,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98589A4C-58F3-4A95-A20C-A143EA1BD0FE}">
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2120,10 +2201,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>568</v>
+        <v>483</v>
       </c>
       <c r="F1" t="s">
-        <v>569</v>
+        <v>484</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2163,7 +2244,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>485</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2172,7 +2253,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>486</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -2189,7 +2270,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>487</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -2198,13 +2279,13 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>488</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -2213,12 +2294,12 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2227,7 +2308,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>309</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -2244,7 +2325,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2253,10 +2334,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -2266,14 +2347,11 @@
       </c>
       <c r="H6" t="s">
         <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -2282,7 +2360,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -2299,7 +2377,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -2308,24 +2386,27 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>312</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2334,24 +2415,27 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -2360,13 +2444,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -2375,12 +2459,12 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -2389,13 +2473,13 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -2404,12 +2488,12 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -2418,13 +2502,13 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -2433,12 +2517,12 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2447,10 +2531,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -2462,12 +2546,12 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -2476,10 +2560,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -2489,11 +2573,14 @@
       </c>
       <c r="H14" t="s">
         <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -2502,7 +2589,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>319</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -2519,7 +2606,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>320</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2528,7 +2615,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>321</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -2545,7 +2632,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2554,10 +2641,10 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -2567,14 +2654,11 @@
       </c>
       <c r="H17" t="s">
         <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -2583,7 +2667,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -2600,7 +2684,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -2609,7 +2693,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -2626,7 +2710,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -2635,13 +2719,13 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -2650,12 +2734,12 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -2664,13 +2748,13 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>322</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -2679,12 +2763,12 @@
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -2693,24 +2777,27 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -2719,13 +2806,13 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
@@ -2734,12 +2821,12 @@
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -2748,10 +2835,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -2761,11 +2848,14 @@
       </c>
       <c r="H24" t="s">
         <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -2774,27 +2864,24 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -2803,10 +2890,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -2816,14 +2903,11 @@
       </c>
       <c r="H26" t="s">
         <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>324</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -2832,10 +2916,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>325</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -2847,12 +2931,12 @@
         <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>89</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -2861,10 +2945,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -2874,14 +2958,11 @@
       </c>
       <c r="H28" t="s">
         <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -2890,10 +2971,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -2905,12 +2986,12 @@
         <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -2919,10 +3000,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -2932,14 +3013,11 @@
       </c>
       <c r="H30" t="s">
         <v>13</v>
-      </c>
-      <c r="I30" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -2948,10 +3026,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -2961,14 +3039,11 @@
       </c>
       <c r="H31" t="s">
         <v>13</v>
-      </c>
-      <c r="I31" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>497</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -2977,10 +3052,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>498</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -2994,7 +3069,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>499</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -3003,10 +3078,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>500</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -3020,7 +3095,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>501</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -3029,10 +3104,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>502</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -3042,14 +3117,11 @@
       </c>
       <c r="H34" t="s">
         <v>13</v>
-      </c>
-      <c r="I34" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -3058,10 +3130,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -3075,7 +3147,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -3084,10 +3156,10 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -3097,11 +3169,14 @@
       </c>
       <c r="H36" t="s">
         <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -3110,10 +3185,10 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>504</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -3125,12 +3200,12 @@
         <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>121</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -3139,7 +3214,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -3154,12 +3229,12 @@
         <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>124</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -3168,10 +3243,10 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>329</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>330</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -3183,12 +3258,12 @@
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>128</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -3197,10 +3272,10 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -3212,12 +3287,12 @@
         <v>13</v>
       </c>
       <c r="I40" t="s">
-        <v>131</v>
+        <v>507</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -3226,10 +3301,10 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -3239,14 +3314,11 @@
       </c>
       <c r="H41" t="s">
         <v>13</v>
-      </c>
-      <c r="I41" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>332</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -3255,10 +3327,10 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -3270,12 +3342,12 @@
         <v>13</v>
       </c>
       <c r="I42" t="s">
-        <v>137</v>
+        <v>508</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -3284,24 +3356,27 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -3310,10 +3385,10 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>334</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -3325,12 +3400,12 @@
         <v>13</v>
       </c>
       <c r="I44" t="s">
-        <v>143</v>
+        <v>510</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -3339,10 +3414,10 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>336</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -3352,11 +3427,14 @@
       </c>
       <c r="H45" t="s">
         <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -3365,13 +3443,13 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -3380,12 +3458,12 @@
         <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>149</v>
+        <v>512</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -3394,10 +3472,10 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -3409,12 +3487,12 @@
         <v>13</v>
       </c>
       <c r="I47" t="s">
-        <v>152</v>
+        <v>513</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -3423,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>514</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
@@ -3436,11 +3514,14 @@
       </c>
       <c r="H48" t="s">
         <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -3449,10 +3530,10 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
@@ -3464,12 +3545,12 @@
         <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>158</v>
+        <v>516</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -3478,13 +3559,13 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="E50" t="s">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="F50" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -3493,12 +3574,12 @@
         <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>163</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -3507,10 +3588,10 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="E51" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
@@ -3522,12 +3603,12 @@
         <v>13</v>
       </c>
       <c r="I51" t="s">
-        <v>166</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -3536,10 +3617,10 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
@@ -3551,12 +3632,12 @@
         <v>13</v>
       </c>
       <c r="I52" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -3565,10 +3646,10 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="E53" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -3582,7 +3663,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -3591,10 +3672,10 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -3606,12 +3687,12 @@
         <v>13</v>
       </c>
       <c r="I54" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -3620,10 +3701,10 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>178</v>
+        <v>286</v>
       </c>
       <c r="E55" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
@@ -3635,12 +3716,12 @@
         <v>13</v>
       </c>
       <c r="I55" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -3649,10 +3730,10 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="E56" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
@@ -3664,12 +3745,12 @@
         <v>13</v>
       </c>
       <c r="I56" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -3678,10 +3759,10 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -3693,12 +3774,12 @@
         <v>13</v>
       </c>
       <c r="I57" t="s">
-        <v>187</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>291</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -3707,10 +3788,10 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
@@ -3722,12 +3803,12 @@
         <v>13</v>
       </c>
       <c r="I58" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -3736,10 +3817,10 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="E59" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
@@ -3751,12 +3832,12 @@
         <v>13</v>
       </c>
       <c r="I59" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -3765,10 +3846,10 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
@@ -3780,12 +3861,12 @@
         <v>13</v>
       </c>
       <c r="I60" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -3794,13 +3875,13 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c r="E61" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="F61" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
@@ -3809,12 +3890,12 @@
         <v>13</v>
       </c>
       <c r="I61" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -3823,10 +3904,10 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="E62" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
@@ -3840,7 +3921,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -3849,10 +3930,10 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="E63" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>
@@ -3866,7 +3947,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -3875,27 +3956,24 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="E64" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
-      </c>
-      <c r="I64" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -3904,27 +3982,24 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="E65" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="F65" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
-      </c>
-      <c r="I65" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -3933,10 +4008,10 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="E66" t="s">
-        <v>215</v>
+        <v>341</v>
       </c>
       <c r="F66" t="s">
         <v>11</v>
@@ -3948,12 +4023,12 @@
         <v>13</v>
       </c>
       <c r="I66" t="s">
-        <v>216</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -3962,10 +4037,10 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>101</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
@@ -3975,11 +4050,14 @@
       </c>
       <c r="H67" t="s">
         <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -3988,10 +4066,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="E68" t="s">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
@@ -4001,14 +4079,11 @@
       </c>
       <c r="H68" t="s">
         <v>13</v>
-      </c>
-      <c r="I68" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>343</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -4017,10 +4092,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>224</v>
+        <v>344</v>
       </c>
       <c r="E69" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
@@ -4030,14 +4105,11 @@
       </c>
       <c r="H69" t="s">
         <v>13</v>
-      </c>
-      <c r="I69" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -4046,10 +4118,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
@@ -4059,14 +4131,11 @@
       </c>
       <c r="H70" t="s">
         <v>13</v>
-      </c>
-      <c r="I70" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -4075,10 +4144,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>231</v>
+        <v>346</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
@@ -4088,14 +4157,11 @@
       </c>
       <c r="H71" t="s">
         <v>13</v>
-      </c>
-      <c r="I71" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>347</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -4104,10 +4170,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>234</v>
+        <v>348</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
@@ -4117,14 +4183,11 @@
       </c>
       <c r="H72" t="s">
         <v>13</v>
-      </c>
-      <c r="I72" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -4133,10 +4196,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="F73" t="s">
         <v>11</v>
@@ -4148,12 +4211,12 @@
         <v>13</v>
       </c>
       <c r="I73" t="s">
-        <v>238</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -4162,10 +4225,10 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="E74" t="s">
-        <v>127</v>
+        <v>519</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -4177,12 +4240,12 @@
         <v>13</v>
       </c>
       <c r="I74" t="s">
-        <v>241</v>
+        <v>520</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>242</v>
+        <v>521</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -4191,10 +4254,10 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>243</v>
+        <v>522</v>
       </c>
       <c r="E75" t="s">
-        <v>244</v>
+        <v>497</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
@@ -4206,12 +4269,12 @@
         <v>13</v>
       </c>
       <c r="I75" t="s">
-        <v>245</v>
+        <v>523</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>524</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -4220,10 +4283,10 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>246</v>
+        <v>525</v>
       </c>
       <c r="E76" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
         <v>11</v>
@@ -4233,14 +4296,11 @@
       </c>
       <c r="H76" t="s">
         <v>13</v>
-      </c>
-      <c r="I76" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>249</v>
+        <v>526</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -4249,10 +4309,10 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>250</v>
+        <v>527</v>
       </c>
       <c r="E77" t="s">
-        <v>251</v>
+        <v>499</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
@@ -4264,12 +4324,12 @@
         <v>13</v>
       </c>
       <c r="I77" t="s">
-        <v>252</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>253</v>
+        <v>529</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -4278,10 +4338,10 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>254</v>
+        <v>530</v>
       </c>
       <c r="E78" t="s">
-        <v>255</v>
+        <v>501</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
@@ -4293,12 +4353,12 @@
         <v>13</v>
       </c>
       <c r="I78" t="s">
-        <v>256</v>
+        <v>531</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>257</v>
+        <v>350</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -4307,10 +4367,10 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>258</v>
+        <v>351</v>
       </c>
       <c r="E79" t="s">
-        <v>259</v>
+        <v>352</v>
       </c>
       <c r="F79" t="s">
         <v>11</v>
@@ -4322,12 +4382,12 @@
         <v>13</v>
       </c>
       <c r="I79" t="s">
-        <v>260</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -4336,10 +4396,10 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
         <v>11</v>
@@ -4351,12 +4411,12 @@
         <v>13</v>
       </c>
       <c r="I80" t="s">
-        <v>264</v>
+        <v>532</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>265</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -4365,10 +4425,10 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
         <v>11</v>
@@ -4380,12 +4440,12 @@
         <v>13</v>
       </c>
       <c r="I81" t="s">
-        <v>267</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -4394,10 +4454,10 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="E82" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
         <v>11</v>
@@ -4407,11 +4467,14 @@
       </c>
       <c r="H82" t="s">
         <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -4420,10 +4483,10 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>111</v>
       </c>
       <c r="E83" t="s">
-        <v>268</v>
+        <v>112</v>
       </c>
       <c r="F83" t="s">
         <v>11</v>
@@ -4433,11 +4496,14 @@
       </c>
       <c r="H83" t="s">
         <v>13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -4446,10 +4512,10 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="E84" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
@@ -4461,12 +4527,12 @@
         <v>13</v>
       </c>
       <c r="I84" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -4475,10 +4541,10 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>278</v>
+        <v>115</v>
       </c>
       <c r="E85" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
         <v>11</v>
@@ -4490,12 +4556,12 @@
         <v>13</v>
       </c>
       <c r="I85" t="s">
-        <v>280</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>281</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -4504,7 +4570,7 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -4519,12 +4585,12 @@
         <v>13</v>
       </c>
       <c r="I86" t="s">
-        <v>283</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -4533,10 +4599,10 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="E87" t="s">
-        <v>286</v>
+        <v>69</v>
       </c>
       <c r="F87" t="s">
         <v>11</v>
@@ -4546,14 +4612,11 @@
       </c>
       <c r="H87" t="s">
         <v>13</v>
-      </c>
-      <c r="I87" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>288</v>
+        <v>122</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -4562,10 +4625,10 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c r="E88" t="s">
-        <v>286</v>
+        <v>533</v>
       </c>
       <c r="F88" t="s">
         <v>11</v>
@@ -4577,12 +4640,12 @@
         <v>13</v>
       </c>
       <c r="I88" t="s">
-        <v>290</v>
+        <v>534</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>291</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
@@ -4591,10 +4654,10 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="E89" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
         <v>11</v>
@@ -4604,14 +4667,11 @@
       </c>
       <c r="H89" t="s">
         <v>13</v>
-      </c>
-      <c r="I89" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>295</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
@@ -4620,10 +4680,10 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>296</v>
+        <v>127</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
@@ -4633,11 +4693,14 @@
       </c>
       <c r="H90" t="s">
         <v>13</v>
+      </c>
+      <c r="I90" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>297</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -4646,7 +4709,7 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>298</v>
+        <v>130</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -4659,11 +4722,14 @@
       </c>
       <c r="H91" t="s">
         <v>13</v>
+      </c>
+      <c r="I91" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -4672,10 +4738,10 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>537</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
@@ -4685,11 +4751,14 @@
       </c>
       <c r="H92" t="s">
         <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
@@ -4698,10 +4767,10 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F93" t="s">
         <v>11</v>
@@ -4711,11 +4780,14 @@
       </c>
       <c r="H93" t="s">
         <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -4724,10 +4796,10 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="F94" t="s">
         <v>11</v>
@@ -4737,11 +4809,14 @@
       </c>
       <c r="H94" t="s">
         <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>305</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -4750,10 +4825,10 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>540</v>
       </c>
       <c r="F95" t="s">
         <v>11</v>
@@ -4763,11 +4838,14 @@
       </c>
       <c r="H95" t="s">
         <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
@@ -4776,10 +4854,10 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>308</v>
+        <v>134</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>540</v>
       </c>
       <c r="F96" t="s">
         <v>11</v>
@@ -4789,11 +4867,14 @@
       </c>
       <c r="H96" t="s">
         <v>13</v>
+      </c>
+      <c r="I96" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
@@ -4802,10 +4883,10 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="F97" t="s">
         <v>11</v>
@@ -4815,11 +4896,14 @@
       </c>
       <c r="H97" t="s">
         <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>311</v>
+        <v>370</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -4828,13 +4912,13 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="E98" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="G98" t="s">
         <v>12</v>
@@ -4843,12 +4927,12 @@
         <v>13</v>
       </c>
       <c r="I98" t="s">
-        <v>313</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>314</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -4857,24 +4941,27 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>315</v>
+        <v>137</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>316</v>
+        <v>141</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -4883,10 +4970,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>317</v>
+        <v>142</v>
       </c>
       <c r="E100" t="s">
-        <v>314</v>
+        <v>64</v>
       </c>
       <c r="F100" t="s">
         <v>11</v>
@@ -4898,12 +4985,12 @@
         <v>13</v>
       </c>
       <c r="I100" t="s">
-        <v>318</v>
+        <v>543</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>319</v>
+        <v>544</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
@@ -4912,10 +4999,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>320</v>
+        <v>545</v>
       </c>
       <c r="E101" t="s">
-        <v>316</v>
+        <v>145</v>
       </c>
       <c r="F101" t="s">
         <v>11</v>
@@ -4927,12 +5014,12 @@
         <v>13</v>
       </c>
       <c r="I101" t="s">
-        <v>321</v>
+        <v>546</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>547</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -4941,13 +5028,13 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>322</v>
+        <v>548</v>
       </c>
       <c r="E102" t="s">
-        <v>23</v>
+        <v>544</v>
       </c>
       <c r="F102" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="G102" t="s">
         <v>12</v>
@@ -4956,12 +5043,12 @@
         <v>13</v>
       </c>
       <c r="I102" t="s">
-        <v>323</v>
+        <v>549</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -4970,10 +5057,10 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="E103" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="F103" t="s">
         <v>11</v>
@@ -4983,14 +5070,11 @@
       </c>
       <c r="H103" t="s">
         <v>13</v>
-      </c>
-      <c r="I103" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>263</v>
+        <v>550</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -4999,10 +5083,10 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>328</v>
+        <v>551</v>
       </c>
       <c r="E104" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="F104" t="s">
         <v>11</v>
@@ -5012,14 +5096,11 @@
       </c>
       <c r="H104" t="s">
         <v>13</v>
-      </c>
-      <c r="I104" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>331</v>
+        <v>143</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
@@ -5028,10 +5109,10 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>332</v>
+        <v>144</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>350</v>
       </c>
       <c r="F105" t="s">
         <v>11</v>
@@ -5041,14 +5122,11 @@
       </c>
       <c r="H105" t="s">
         <v>13</v>
-      </c>
-      <c r="I105" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>334</v>
+        <v>146</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -5057,10 +5135,10 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>335</v>
+        <v>147</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>552</v>
       </c>
       <c r="F106" t="s">
         <v>11</v>
@@ -5074,7 +5152,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -5083,10 +5161,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="E107" t="s">
-        <v>93</v>
+        <v>350</v>
       </c>
       <c r="F107" t="s">
         <v>11</v>
@@ -5098,12 +5176,12 @@
         <v>13</v>
       </c>
       <c r="I107" t="s">
-        <v>338</v>
+        <v>553</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -5112,10 +5190,10 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F108" t="s">
         <v>11</v>
@@ -5127,12 +5205,12 @@
         <v>13</v>
       </c>
       <c r="I108" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -5141,10 +5219,10 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="E109" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
         <v>11</v>
@@ -5156,12 +5234,12 @@
         <v>13</v>
       </c>
       <c r="I109" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>345</v>
+        <v>148</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -5170,10 +5248,10 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>346</v>
+        <v>149</v>
       </c>
       <c r="E110" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="F110" t="s">
         <v>11</v>
@@ -5185,12 +5263,12 @@
         <v>13</v>
       </c>
       <c r="I110" t="s">
-        <v>347</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -5199,10 +5277,10 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="E111" t="s">
-        <v>107</v>
+        <v>283</v>
       </c>
       <c r="F111" t="s">
         <v>11</v>
@@ -5214,12 +5292,12 @@
         <v>13</v>
       </c>
       <c r="I111" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
@@ -5228,10 +5306,10 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="E112" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="F112" t="s">
         <v>11</v>
@@ -5241,11 +5319,14 @@
       </c>
       <c r="H112" t="s">
         <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>352</v>
+        <v>153</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
@@ -5254,10 +5335,10 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="F113" t="s">
         <v>11</v>
@@ -5267,66 +5348,72 @@
       </c>
       <c r="H113" t="s">
         <v>13</v>
+      </c>
+      <c r="I113" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>354</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="F114" t="s">
         <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>356</v>
+        <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>357</v>
+        <v>13</v>
+      </c>
+      <c r="I114" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>354</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>355</v>
+        <v>156</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="F115" t="s">
         <v>11</v>
       </c>
       <c r="G115" t="s">
-        <v>356</v>
+        <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>357</v>
+        <v>13</v>
       </c>
       <c r="I115" t="s">
-        <v>358</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>359</v>
+        <v>159</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -5335,10 +5422,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F116" t="s">
         <v>11</v>
@@ -5348,11 +5435,14 @@
       </c>
       <c r="H116" t="s">
         <v>13</v>
+      </c>
+      <c r="I116" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>361</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -5361,10 +5451,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>362</v>
+        <v>162</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="F117" t="s">
         <v>11</v>
@@ -5374,11 +5464,14 @@
       </c>
       <c r="H117" t="s">
         <v>13</v>
+      </c>
+      <c r="I117" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
@@ -5387,13 +5480,13 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>393</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G118" t="s">
         <v>12</v>
@@ -5402,12 +5495,12 @@
         <v>13</v>
       </c>
       <c r="I118" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
@@ -5416,10 +5509,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>365</v>
+        <v>165</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="F119" t="s">
         <v>11</v>
@@ -5429,11 +5522,14 @@
       </c>
       <c r="H119" t="s">
         <v>13</v>
+      </c>
+      <c r="I119" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
@@ -5442,10 +5538,10 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
       <c r="F120" t="s">
         <v>11</v>
@@ -5455,11 +5551,14 @@
       </c>
       <c r="H120" t="s">
         <v>13</v>
+      </c>
+      <c r="I120" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>25</v>
+        <v>399</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
@@ -5468,10 +5567,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
       <c r="F121" t="s">
         <v>11</v>
@@ -5485,7 +5584,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>369</v>
+        <v>168</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
@@ -5494,10 +5593,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>370</v>
+        <v>169</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="F122" t="s">
         <v>11</v>
@@ -5507,11 +5606,14 @@
       </c>
       <c r="H122" t="s">
         <v>13</v>
+      </c>
+      <c r="I122" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>371</v>
+        <v>170</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
@@ -5520,24 +5622,27 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>372</v>
+        <v>171</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="G123" t="s">
         <v>12</v>
       </c>
       <c r="H123" t="s">
         <v>13</v>
+      </c>
+      <c r="I123" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
@@ -5546,13 +5651,13 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>403</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="G124" t="s">
         <v>12</v>
@@ -5561,12 +5666,12 @@
         <v>13</v>
       </c>
       <c r="I124" t="s">
-        <v>374</v>
+        <v>556</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -5575,7 +5680,7 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="E125" t="s">
         <v>49</v>
@@ -5589,13 +5694,10 @@
       <c r="H125" t="s">
         <v>13</v>
       </c>
-      <c r="I125" t="s">
-        <v>377</v>
-      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
@@ -5604,10 +5706,10 @@
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F126" t="s">
         <v>11</v>
@@ -5621,7 +5723,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -5630,10 +5732,10 @@
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>381</v>
+        <v>176</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F127" t="s">
         <v>11</v>
@@ -5647,7 +5749,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -5656,10 +5758,10 @@
         <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>382</v>
+        <v>178</v>
       </c>
       <c r="E128" t="s">
-        <v>383</v>
+        <v>49</v>
       </c>
       <c r="F128" t="s">
         <v>11</v>
@@ -5669,14 +5771,11 @@
       </c>
       <c r="H128" t="s">
         <v>13</v>
-      </c>
-      <c r="I128" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>385</v>
+        <v>173</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -5685,13 +5784,13 @@
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>386</v>
+        <v>179</v>
       </c>
       <c r="E129" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="G129" t="s">
         <v>12</v>
@@ -5700,12 +5799,12 @@
         <v>13</v>
       </c>
       <c r="I129" t="s">
-        <v>387</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
@@ -5714,13 +5813,13 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>388</v>
+        <v>182</v>
       </c>
       <c r="E130" t="s">
-        <v>389</v>
+        <v>173</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="G130" t="s">
         <v>12</v>
@@ -5729,12 +5828,12 @@
         <v>13</v>
       </c>
       <c r="I130" t="s">
-        <v>390</v>
+        <v>557</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -5743,10 +5842,10 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="E131" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F131" t="s">
         <v>11</v>
@@ -5756,40 +5855,40 @@
       </c>
       <c r="H131" t="s">
         <v>13</v>
-      </c>
-      <c r="I131" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>394</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>395</v>
+        <v>185</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F132" t="s">
         <v>11</v>
       </c>
       <c r="G132" t="s">
-        <v>394</v>
+        <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>396</v>
+        <v>13</v>
+      </c>
+      <c r="I132" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
@@ -5798,10 +5897,10 @@
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>397</v>
+        <v>187</v>
       </c>
       <c r="E133" t="s">
-        <v>398</v>
+        <v>106</v>
       </c>
       <c r="F133" t="s">
         <v>11</v>
@@ -5813,12 +5912,12 @@
         <v>13</v>
       </c>
       <c r="I133" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -5827,10 +5926,10 @@
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>401</v>
+        <v>561</v>
       </c>
       <c r="E134" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
         <v>11</v>
@@ -5844,7 +5943,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -5853,10 +5952,10 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E135" t="s">
-        <v>51</v>
+        <v>524</v>
       </c>
       <c r="F135" t="s">
         <v>11</v>
@@ -5866,11 +5965,14 @@
       </c>
       <c r="H135" t="s">
         <v>13</v>
+      </c>
+      <c r="I135" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>404</v>
+        <v>188</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -5879,10 +5981,10 @@
         <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>405</v>
+        <v>189</v>
       </c>
       <c r="E136" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="F136" t="s">
         <v>11</v>
@@ -5896,7 +5998,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>221</v>
+        <v>563</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -5905,10 +6007,10 @@
         <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>406</v>
+        <v>564</v>
       </c>
       <c r="E137" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
         <v>11</v>
@@ -5918,14 +6020,11 @@
       </c>
       <c r="H137" t="s">
         <v>13</v>
-      </c>
-      <c r="I137" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>408</v>
+        <v>565</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
@@ -5934,10 +6033,10 @@
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>409</v>
+        <v>566</v>
       </c>
       <c r="E138" t="s">
-        <v>410</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
         <v>11</v>
@@ -5947,9 +6046,6 @@
       </c>
       <c r="H138" t="s">
         <v>13</v>
-      </c>
-      <c r="I138" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
@@ -5966,7 +6062,7 @@
         <v>413</v>
       </c>
       <c r="E139" t="s">
-        <v>414</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
         <v>11</v>
@@ -5978,12 +6074,12 @@
         <v>13</v>
       </c>
       <c r="I139" t="s">
-        <v>415</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -5992,7 +6088,7 @@
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>416</v>
+        <v>192</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -6007,12 +6103,12 @@
         <v>13</v>
       </c>
       <c r="I140" t="s">
-        <v>417</v>
+        <v>193</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>418</v>
+        <v>194</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
@@ -6021,7 +6117,7 @@
         <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>419</v>
+        <v>195</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -6036,12 +6132,12 @@
         <v>13</v>
       </c>
       <c r="I141" t="s">
-        <v>238</v>
+        <v>568</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
@@ -6050,10 +6146,10 @@
         <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E142" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
         <v>11</v>
@@ -6065,12 +6161,12 @@
         <v>13</v>
       </c>
       <c r="I142" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
@@ -6079,10 +6175,10 @@
         <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E143" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
         <v>11</v>
@@ -6094,12 +6190,12 @@
         <v>13</v>
       </c>
       <c r="I143" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>426</v>
+        <v>196</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
@@ -6108,10 +6204,10 @@
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>427</v>
+        <v>197</v>
       </c>
       <c r="E144" t="s">
-        <v>423</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
         <v>11</v>
@@ -6123,12 +6219,12 @@
         <v>13</v>
       </c>
       <c r="I144" t="s">
-        <v>428</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>157</v>
+        <v>419</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -6137,10 +6233,10 @@
         <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="F145" t="s">
         <v>11</v>
@@ -6152,12 +6248,12 @@
         <v>13</v>
       </c>
       <c r="I145" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
@@ -6166,10 +6262,10 @@
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>431</v>
+        <v>200</v>
       </c>
       <c r="E146" t="s">
-        <v>432</v>
+        <v>112</v>
       </c>
       <c r="F146" t="s">
         <v>11</v>
@@ -6181,12 +6277,12 @@
         <v>13</v>
       </c>
       <c r="I146" t="s">
-        <v>433</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
@@ -6195,13 +6291,13 @@
         <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="E147" t="s">
         <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>436</v>
+        <v>11</v>
       </c>
       <c r="G147" t="s">
         <v>12</v>
@@ -6210,12 +6306,12 @@
         <v>13</v>
       </c>
       <c r="I147" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
@@ -6224,10 +6320,10 @@
         <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="E148" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
         <v>11</v>
@@ -6239,12 +6335,12 @@
         <v>13</v>
       </c>
       <c r="I148" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
@@ -6253,10 +6349,10 @@
         <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>442</v>
+        <v>203</v>
       </c>
       <c r="E149" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
       <c r="F149" t="s">
         <v>11</v>
@@ -6268,12 +6364,12 @@
         <v>13</v>
       </c>
       <c r="I149" t="s">
-        <v>444</v>
+        <v>569</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
@@ -6282,10 +6378,10 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="E150" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
         <v>11</v>
@@ -6297,12 +6393,12 @@
         <v>13</v>
       </c>
       <c r="I150" t="s">
-        <v>447</v>
+        <v>570</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
@@ -6311,10 +6407,10 @@
         <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>571</v>
       </c>
       <c r="F151" t="s">
         <v>11</v>
@@ -6326,12 +6422,12 @@
         <v>13</v>
       </c>
       <c r="I151" t="s">
-        <v>450</v>
+        <v>572</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
@@ -6340,10 +6436,10 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="E152" t="s">
-        <v>334</v>
+        <v>434</v>
       </c>
       <c r="F152" t="s">
         <v>11</v>
@@ -6355,12 +6451,12 @@
         <v>13</v>
       </c>
       <c r="I152" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>454</v>
+        <v>138</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
@@ -6369,10 +6465,10 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>455</v>
+        <v>205</v>
       </c>
       <c r="E153" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="F153" t="s">
         <v>11</v>
@@ -6384,12 +6480,12 @@
         <v>13</v>
       </c>
       <c r="I153" t="s">
-        <v>456</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
@@ -6398,10 +6494,10 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>457</v>
+        <v>208</v>
       </c>
       <c r="E154" t="s">
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="F154" t="s">
         <v>11</v>
@@ -6413,12 +6509,12 @@
         <v>13</v>
       </c>
       <c r="I154" t="s">
-        <v>458</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>193</v>
+        <v>436</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
@@ -6427,10 +6523,10 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="E155" t="s">
-        <v>460</v>
+        <v>574</v>
       </c>
       <c r="F155" t="s">
         <v>11</v>
@@ -6442,12 +6538,12 @@
         <v>13</v>
       </c>
       <c r="I155" t="s">
-        <v>461</v>
+        <v>575</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>462</v>
+        <v>211</v>
       </c>
       <c r="B156" t="s">
         <v>8</v>
@@ -6456,10 +6552,10 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>463</v>
+        <v>212</v>
       </c>
       <c r="E156" t="s">
-        <v>464</v>
+        <v>213</v>
       </c>
       <c r="F156" t="s">
         <v>11</v>
@@ -6471,12 +6567,12 @@
         <v>13</v>
       </c>
       <c r="I156" t="s">
-        <v>465</v>
+        <v>576</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
@@ -6485,10 +6581,10 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="E157" t="s">
-        <v>468</v>
+        <v>577</v>
       </c>
       <c r="F157" t="s">
         <v>11</v>
@@ -6498,11 +6594,14 @@
       </c>
       <c r="H157" t="s">
         <v>13</v>
+      </c>
+      <c r="I157" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>211</v>
+        <v>440</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
@@ -6511,13 +6610,13 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="E158" t="s">
-        <v>470</v>
+        <v>577</v>
       </c>
       <c r="F158" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="G158" t="s">
         <v>12</v>
@@ -6526,12 +6625,12 @@
         <v>13</v>
       </c>
       <c r="I158" t="s">
-        <v>471</v>
+        <v>578</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>472</v>
+        <v>214</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
@@ -6540,10 +6639,10 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="E159" t="s">
-        <v>51</v>
+        <v>547</v>
       </c>
       <c r="F159" t="s">
         <v>11</v>
@@ -6553,11 +6652,14 @@
       </c>
       <c r="H159" t="s">
         <v>13</v>
+      </c>
+      <c r="I159" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>474</v>
+        <v>580</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
@@ -6566,10 +6668,10 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>475</v>
+        <v>581</v>
       </c>
       <c r="E160" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="F160" t="s">
         <v>11</v>
@@ -6583,7 +6685,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>476</v>
+        <v>582</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
@@ -6592,10 +6694,10 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>477</v>
+        <v>583</v>
       </c>
       <c r="E161" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
         <v>11</v>
@@ -6605,11 +6707,14 @@
       </c>
       <c r="H161" t="s">
         <v>13</v>
+      </c>
+      <c r="I161" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>478</v>
+        <v>215</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
@@ -6618,10 +6723,10 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>479</v>
+        <v>216</v>
       </c>
       <c r="E162" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F162" t="s">
         <v>11</v>
@@ -6633,12 +6738,12 @@
         <v>13</v>
       </c>
       <c r="I162" t="s">
-        <v>480</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
@@ -6647,10 +6752,10 @@
         <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F163" t="s">
         <v>11</v>
@@ -6660,14 +6765,11 @@
       </c>
       <c r="H163" t="s">
         <v>13</v>
-      </c>
-      <c r="I163" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
@@ -6676,10 +6778,10 @@
         <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="E164" t="s">
-        <v>233</v>
+        <v>443</v>
       </c>
       <c r="F164" t="s">
         <v>11</v>
@@ -6691,12 +6793,12 @@
         <v>13</v>
       </c>
       <c r="I164" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>487</v>
+        <v>219</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
@@ -6705,10 +6807,10 @@
         <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>488</v>
+        <v>220</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F165" t="s">
         <v>11</v>
@@ -6720,12 +6822,12 @@
         <v>13</v>
       </c>
       <c r="I165" t="s">
-        <v>489</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
@@ -6734,10 +6836,10 @@
         <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="F166" t="s">
         <v>11</v>
@@ -6749,12 +6851,12 @@
         <v>13</v>
       </c>
       <c r="I166" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="B167" t="s">
         <v>8</v>
@@ -6763,10 +6865,10 @@
         <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="E167" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="F167" t="s">
         <v>11</v>
@@ -6776,14 +6878,11 @@
       </c>
       <c r="H167" t="s">
         <v>13</v>
-      </c>
-      <c r="I167" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>495</v>
+        <v>222</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
@@ -6792,10 +6891,10 @@
         <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>496</v>
+        <v>223</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="F168" t="s">
         <v>11</v>
@@ -6805,14 +6904,11 @@
       </c>
       <c r="H168" t="s">
         <v>13</v>
-      </c>
-      <c r="I168" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>498</v>
+        <v>225</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
@@ -6821,10 +6917,10 @@
         <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>499</v>
+        <v>226</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="F169" t="s">
         <v>11</v>
@@ -6834,14 +6930,11 @@
       </c>
       <c r="H169" t="s">
         <v>13</v>
-      </c>
-      <c r="I169" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>501</v>
+        <v>453</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
@@ -6850,10 +6943,10 @@
         <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>502</v>
+        <v>454</v>
       </c>
       <c r="E170" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
         <v>11</v>
@@ -6863,14 +6956,11 @@
       </c>
       <c r="H170" t="s">
         <v>13</v>
-      </c>
-      <c r="I170" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>504</v>
+        <v>229</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
@@ -6879,10 +6969,10 @@
         <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="E171" t="s">
-        <v>506</v>
+        <v>232</v>
       </c>
       <c r="F171" t="s">
         <v>11</v>
@@ -6894,12 +6984,12 @@
         <v>13</v>
       </c>
       <c r="I171" t="s">
-        <v>507</v>
+        <v>456</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>508</v>
+        <v>227</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
@@ -6908,10 +6998,10 @@
         <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>509</v>
+        <v>228</v>
       </c>
       <c r="E172" t="s">
-        <v>510</v>
+        <v>229</v>
       </c>
       <c r="F172" t="s">
         <v>11</v>
@@ -6923,12 +7013,12 @@
         <v>13</v>
       </c>
       <c r="I172" t="s">
-        <v>511</v>
+        <v>585</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>512</v>
+        <v>230</v>
       </c>
       <c r="B173" t="s">
         <v>8</v>
@@ -6937,10 +7027,10 @@
         <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>513</v>
+        <v>231</v>
       </c>
       <c r="E173" t="s">
-        <v>514</v>
+        <v>232</v>
       </c>
       <c r="F173" t="s">
         <v>11</v>
@@ -6952,12 +7042,12 @@
         <v>13</v>
       </c>
       <c r="I173" t="s">
-        <v>515</v>
+        <v>586</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>516</v>
+        <v>457</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
@@ -6966,10 +7056,10 @@
         <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>517</v>
+        <v>458</v>
       </c>
       <c r="E174" t="s">
-        <v>155</v>
+        <v>459</v>
       </c>
       <c r="F174" t="s">
         <v>11</v>
@@ -6981,12 +7071,12 @@
         <v>13</v>
       </c>
       <c r="I174" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>519</v>
+        <v>460</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
@@ -6995,10 +7085,10 @@
         <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>520</v>
+        <v>461</v>
       </c>
       <c r="E175" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="F175" t="s">
         <v>11</v>
@@ -7010,12 +7100,12 @@
         <v>13</v>
       </c>
       <c r="I175" t="s">
-        <v>521</v>
+        <v>588</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>259</v>
+        <v>589</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
@@ -7024,10 +7114,10 @@
         <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>522</v>
+        <v>590</v>
       </c>
       <c r="E176" t="s">
-        <v>523</v>
+        <v>591</v>
       </c>
       <c r="F176" t="s">
         <v>11</v>
@@ -7039,12 +7129,12 @@
         <v>13</v>
       </c>
       <c r="I176" t="s">
-        <v>524</v>
+        <v>592</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>525</v>
+        <v>593</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
@@ -7053,10 +7143,10 @@
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>526</v>
+        <v>594</v>
       </c>
       <c r="E177" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
         <v>11</v>
@@ -7070,7 +7160,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>527</v>
+        <v>233</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
@@ -7079,10 +7169,10 @@
         <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>528</v>
+        <v>234</v>
       </c>
       <c r="E178" t="s">
-        <v>525</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
         <v>11</v>
@@ -7094,12 +7184,12 @@
         <v>13</v>
       </c>
       <c r="I178" t="s">
-        <v>529</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>530</v>
+        <v>462</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
@@ -7108,10 +7198,10 @@
         <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
       <c r="E179" t="s">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
         <v>11</v>
@@ -7123,12 +7213,12 @@
         <v>13</v>
       </c>
       <c r="I179" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>533</v>
+        <v>238</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
@@ -7137,10 +7227,10 @@
         <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>534</v>
+        <v>464</v>
       </c>
       <c r="E180" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
         <v>11</v>
@@ -7154,7 +7244,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>535</v>
+        <v>236</v>
       </c>
       <c r="B181" t="s">
         <v>8</v>
@@ -7163,10 +7253,10 @@
         <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>536</v>
+        <v>237</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="F181" t="s">
         <v>11</v>
@@ -7176,11 +7266,14 @@
       </c>
       <c r="H181" t="s">
         <v>13</v>
+      </c>
+      <c r="I181" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
@@ -7189,10 +7282,10 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>537</v>
+        <v>241</v>
       </c>
       <c r="E182" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="F182" t="s">
         <v>11</v>
@@ -7204,12 +7297,12 @@
         <v>13</v>
       </c>
       <c r="I182" t="s">
-        <v>538</v>
+        <v>242</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>539</v>
+        <v>465</v>
       </c>
       <c r="B183" t="s">
         <v>8</v>
@@ -7218,10 +7311,10 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>540</v>
+        <v>466</v>
       </c>
       <c r="E183" t="s">
-        <v>541</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
         <v>11</v>
@@ -7231,14 +7324,11 @@
       </c>
       <c r="H183" t="s">
         <v>13</v>
-      </c>
-      <c r="I183" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>543</v>
+        <v>243</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
@@ -7247,10 +7337,10 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>544</v>
+        <v>244</v>
       </c>
       <c r="E184" t="s">
-        <v>541</v>
+        <v>245</v>
       </c>
       <c r="F184" t="s">
         <v>11</v>
@@ -7262,12 +7352,12 @@
         <v>13</v>
       </c>
       <c r="I184" t="s">
-        <v>542</v>
+        <v>246</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>545</v>
+        <v>247</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
@@ -7276,7 +7366,7 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>546</v>
+        <v>248</v>
       </c>
       <c r="E185" t="s">
         <v>11</v>
@@ -7289,14 +7379,11 @@
       </c>
       <c r="H185" t="s">
         <v>13</v>
-      </c>
-      <c r="I185" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
@@ -7305,7 +7392,7 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>548</v>
+        <v>250</v>
       </c>
       <c r="E186" t="s">
         <v>11</v>
@@ -7322,7 +7409,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>549</v>
+        <v>251</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
@@ -7331,7 +7418,7 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>550</v>
+        <v>252</v>
       </c>
       <c r="E187" t="s">
         <v>11</v>
@@ -7348,7 +7435,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>551</v>
+        <v>253</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
@@ -7357,7 +7444,7 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>552</v>
+        <v>254</v>
       </c>
       <c r="E188" t="s">
         <v>11</v>
@@ -7374,7 +7461,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>293</v>
+        <v>467</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
@@ -7383,10 +7470,10 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>553</v>
+        <v>468</v>
       </c>
       <c r="E189" t="s">
-        <v>549</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
         <v>11</v>
@@ -7396,14 +7483,11 @@
       </c>
       <c r="H189" t="s">
         <v>13</v>
-      </c>
-      <c r="I189" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>555</v>
+        <v>255</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
@@ -7412,7 +7496,7 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>556</v>
+        <v>256</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -7429,7 +7513,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>557</v>
+        <v>245</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
@@ -7438,7 +7522,7 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>558</v>
+        <v>469</v>
       </c>
       <c r="E191" t="s">
         <v>11</v>
@@ -7455,7 +7539,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>559</v>
+        <v>470</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
@@ -7464,7 +7548,7 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>560</v>
+        <v>471</v>
       </c>
       <c r="E192" t="s">
         <v>11</v>
@@ -7481,7 +7565,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>561</v>
+        <v>472</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
@@ -7490,10 +7574,10 @@
         <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>562</v>
+        <v>473</v>
       </c>
       <c r="E193" t="s">
-        <v>559</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
         <v>11</v>
@@ -7503,14 +7587,11 @@
       </c>
       <c r="H193" t="s">
         <v>13</v>
-      </c>
-      <c r="I193" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>564</v>
+        <v>474</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
@@ -7519,7 +7600,7 @@
         <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>565</v>
+        <v>475</v>
       </c>
       <c r="E194" t="s">
         <v>11</v>
@@ -7536,7 +7617,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>566</v>
+        <v>476</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
@@ -7545,10 +7626,10 @@
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>567</v>
+        <v>477</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>474</v>
       </c>
       <c r="F195" t="s">
         <v>11</v>
@@ -7559,8 +7640,336 @@
       <c r="H195" t="s">
         <v>13</v>
       </c>
+      <c r="I195" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>479</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" t="s">
+        <v>480</v>
+      </c>
+      <c r="E196" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" t="s">
+        <v>11</v>
+      </c>
+      <c r="G196" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>257</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" t="s">
+        <v>258</v>
+      </c>
+      <c r="E197" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" t="s">
+        <v>11</v>
+      </c>
+      <c r="G197" t="s">
+        <v>12</v>
+      </c>
+      <c r="H197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>259</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" t="s">
+        <v>260</v>
+      </c>
+      <c r="E198" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" t="s">
+        <v>11</v>
+      </c>
+      <c r="G198" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>261</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" t="s">
+        <v>262</v>
+      </c>
+      <c r="E199" t="s">
+        <v>11</v>
+      </c>
+      <c r="F199" t="s">
+        <v>11</v>
+      </c>
+      <c r="G199" t="s">
+        <v>12</v>
+      </c>
+      <c r="H199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>263</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" t="s">
+        <v>264</v>
+      </c>
+      <c r="E200" t="s">
+        <v>261</v>
+      </c>
+      <c r="F200" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>266</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" t="s">
+        <v>267</v>
+      </c>
+      <c r="E201" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" t="s">
+        <v>11</v>
+      </c>
+      <c r="G201" t="s">
+        <v>12</v>
+      </c>
+      <c r="H201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>268</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>269</v>
+      </c>
+      <c r="E202" t="s">
+        <v>266</v>
+      </c>
+      <c r="F202" t="s">
+        <v>11</v>
+      </c>
+      <c r="G202" t="s">
+        <v>12</v>
+      </c>
+      <c r="H202" t="s">
+        <v>13</v>
+      </c>
+      <c r="I202" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>481</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" t="s">
+        <v>482</v>
+      </c>
+      <c r="E203" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203" t="s">
+        <v>11</v>
+      </c>
+      <c r="G203" t="s">
+        <v>12</v>
+      </c>
+      <c r="H203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>271</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" t="s">
+        <v>272</v>
+      </c>
+      <c r="E204" t="s">
+        <v>268</v>
+      </c>
+      <c r="F204" t="s">
+        <v>11</v>
+      </c>
+      <c r="G204" t="s">
+        <v>12</v>
+      </c>
+      <c r="H204" t="s">
+        <v>13</v>
+      </c>
+      <c r="I204" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>69</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>337</v>
+      </c>
+      <c r="D205" t="s">
+        <v>338</v>
+      </c>
+      <c r="E205" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205" t="s">
+        <v>11</v>
+      </c>
+      <c r="G205" t="s">
+        <v>337</v>
+      </c>
+      <c r="H205" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>43</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" t="s">
+        <v>303</v>
+      </c>
+      <c r="D206" t="s">
+        <v>304</v>
+      </c>
+      <c r="E206" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" t="s">
+        <v>11</v>
+      </c>
+      <c r="G206" t="s">
+        <v>305</v>
+      </c>
+      <c r="H206" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>43</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>303</v>
+      </c>
+      <c r="D207" t="s">
+        <v>304</v>
+      </c>
+      <c r="E207" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" t="s">
+        <v>11</v>
+      </c>
+      <c r="G207" t="s">
+        <v>305</v>
+      </c>
+      <c r="H207" t="s">
+        <v>306</v>
+      </c>
+      <c r="I207" t="s">
+        <v>307</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1" xr:uid="{98589A4C-58F3-4A95-A20C-A143EA1BD0FE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>